--- a/原価試算作成ツール/【試験方案】原価試算作成ツール.xlsx
+++ b/原価試算作成ツール/【試験方案】原価試算作成ツール.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="152">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1306,49 +1306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>左記2項目が、\\Gserver\999_個人フォルダ\柴田\原紙テスト\内に存在しない時、「原紙が見つかりませんでした」と表示が出て終了すること</t>
-    <rPh sb="0" eb="2">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シバタ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ゲンシ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ゲンシ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【原紙】HR40-C001_製造原価試算書_改訂20180113.xlsxを別のディレクトリに移動（デスクトップ）</t>
     <rPh sb="1" eb="3">
       <t>ゲンシ</t>
@@ -1558,25 +1515,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「空白のセルが存在します。空白のセルには「---」を挿入しますがよろしいですか？というメッセージが出ること</t>
-    <rPh sb="1" eb="3">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ソウニュウ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>見積もり情報シートを単独で開いた状態での表示確認</t>
     <rPh sb="0" eb="2">
       <t>ミツ</t>
@@ -1595,19 +1533,6 @@
     </rPh>
     <rPh sb="20" eb="24">
       <t>ヒョウジカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>見積もり情報シートが単独で開く</t>
-    <rPh sb="0" eb="2">
-      <t>ミツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1999,6 +1924,94 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積もり情報シートが単独で開く
+（Excelでファイルを起動したままにする）</t>
+    <rPh sb="0" eb="2">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左記2項目が、\\Gserver\999_個人フォルダ\柴田\原紙テスト\内に存在しない時、「原価試算書の一覧を取得できませんでした。」と表示が出て終了すること</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シバタ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「空白のセルが存在します。空白のセルには「-」を挿入しますがよろしいですか？というメッセージが出ること</t>
+    <rPh sb="1" eb="3">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>デ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2563,6 +2576,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2572,6 +2651,63 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2581,6 +2717,105 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2592,228 +2827,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3135,8 +3148,8 @@
   <dimension ref="A1:AJ92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54:F54"/>
+      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T40" sqref="T40:Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.95" customHeight="1"/>
@@ -3163,27 +3176,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="14.25" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75">
+      <c r="B1" s="77"/>
+      <c r="C1" s="84">
         <f>COUNTIF(A7:A140,"")</f>
         <v>48</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75">
+      <c r="E1" s="77"/>
+      <c r="F1" s="84">
         <f>COUNTIF(AE7:AE87,"*◯*")</f>
         <v>22</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="75">
+      <c r="H1" s="85"/>
+      <c r="I1" s="84">
         <f>COUNTIF(AE7:AE29,"*否*")</f>
         <v>0</v>
       </c>
@@ -3202,15 +3215,15 @@
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:36" ht="14.25" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="75"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="24"/>
       <c r="K2" s="5" t="s">
         <v>81</v>
@@ -3226,15 +3239,15 @@
       <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:36" ht="14.25" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="75"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="24"/>
       <c r="K3" s="4" t="s">
         <v>16</v>
@@ -3276,100 +3289,100 @@
       <c r="AA4" s="14"/>
     </row>
     <row r="5" spans="1:36" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="79" t="s">
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="88" t="s">
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="90">
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="99">
         <v>43221</v>
       </c>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="33" t="s">
+      <c r="AC5" s="100"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="AF5" s="34"/>
+      <c r="AF5" s="108"/>
       <c r="AG5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="36"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="110"/>
     </row>
     <row r="6" spans="1:36" s="18" customFormat="1" ht="12.75" thickBot="1">
       <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="54" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="54" t="s">
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="54" t="s">
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="54" t="s">
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="56"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="80"/>
       <c r="AE6" s="17" t="s">
         <v>1</v>
       </c>
@@ -3379,55 +3392,55 @@
       <c r="AG6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AH6" s="73" t="s">
+      <c r="AH6" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="AI6" s="73"/>
-      <c r="AJ6" s="93"/>
+      <c r="AI6" s="74"/>
+      <c r="AJ6" s="75"/>
     </row>
     <row r="7" spans="1:36" ht="29.25" customHeight="1">
       <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="85" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="82" t="s">
+      <c r="H7" s="95"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="27" t="s">
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="27" t="s">
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="29"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="51"/>
       <c r="AE7" s="22" t="s">
         <v>84</v>
       </c>
@@ -3437,47 +3450,47 @@
       <c r="AG7" s="21">
         <v>43227</v>
       </c>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="44"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="67"/>
     </row>
     <row r="8" spans="1:36" ht="29.25" customHeight="1">
       <c r="A8" s="19">
         <v>2</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="27" t="s">
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="27" t="s">
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="29"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="51"/>
       <c r="AE8" s="22" t="s">
         <v>84</v>
       </c>
@@ -3487,47 +3500,47 @@
       <c r="AG8" s="21">
         <v>43227</v>
       </c>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="44"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="67"/>
     </row>
     <row r="9" spans="1:36" ht="29.25" customHeight="1">
       <c r="A9" s="19">
         <v>3</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="27" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="27" t="s">
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="29"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="51"/>
       <c r="AE9" s="22" t="s">
         <v>84</v>
       </c>
@@ -3537,47 +3550,47 @@
       <c r="AG9" s="21">
         <v>43227</v>
       </c>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="53"/>
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="76"/>
     </row>
     <row r="10" spans="1:36" ht="29.25" customHeight="1">
       <c r="A10" s="19">
         <v>4</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="27" t="s">
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="27" t="s">
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="29"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="51"/>
       <c r="AE10" s="22" t="s">
         <v>84</v>
       </c>
@@ -3587,49 +3600,49 @@
       <c r="AG10" s="21">
         <v>43227</v>
       </c>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="52"/>
-      <c r="AJ10" s="53"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="76"/>
     </row>
     <row r="11" spans="1:36" ht="29.25" customHeight="1">
       <c r="A11" s="19">
         <v>5</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="64" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="27" t="s">
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="27" t="s">
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="29"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="51"/>
       <c r="AE11" s="22" t="s">
         <v>84</v>
       </c>
@@ -3639,47 +3652,47 @@
       <c r="AG11" s="21">
         <v>43227</v>
       </c>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="53"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="76"/>
     </row>
     <row r="12" spans="1:36" ht="29.25" customHeight="1">
       <c r="A12" s="19">
         <v>6</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="27" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="27" t="s">
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="29"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="51"/>
       <c r="AE12" s="22" t="s">
         <v>84</v>
       </c>
@@ -3689,47 +3702,47 @@
       <c r="AG12" s="21">
         <v>43227</v>
       </c>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="52"/>
-      <c r="AJ12" s="53"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="76"/>
     </row>
     <row r="13" spans="1:36" ht="29.25" customHeight="1">
       <c r="A13" s="19">
         <v>7</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="27" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="27" t="s">
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="29"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="51"/>
       <c r="AE13" s="22" t="s">
         <v>84</v>
       </c>
@@ -3739,53 +3752,53 @@
       <c r="AG13" s="21">
         <v>43227</v>
       </c>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="43"/>
-      <c r="AJ13" s="44"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="67"/>
     </row>
     <row r="14" spans="1:36" ht="135.75" customHeight="1">
       <c r="A14" s="19">
         <v>8</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="49" t="s">
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="46" t="s">
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="57" t="s">
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="27" t="s">
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="29"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="51"/>
       <c r="AE14" s="22" t="s">
         <v>84</v>
       </c>
@@ -3795,53 +3808,53 @@
       <c r="AG14" s="21">
         <v>43227</v>
       </c>
-      <c r="AH14" s="43"/>
-      <c r="AI14" s="43"/>
-      <c r="AJ14" s="44"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="67"/>
     </row>
     <row r="15" spans="1:36" ht="52.5" customHeight="1">
       <c r="A15" s="19">
         <v>9</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="49" t="s">
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="46" t="s">
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="27" t="s">
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="27" t="s">
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="29"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="51"/>
       <c r="AE15" s="22" t="s">
         <v>84</v>
       </c>
@@ -3851,53 +3864,53 @@
       <c r="AG15" s="21">
         <v>43227</v>
       </c>
-      <c r="AH15" s="43"/>
-      <c r="AI15" s="43"/>
-      <c r="AJ15" s="44"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="67"/>
     </row>
     <row r="16" spans="1:36" s="20" customFormat="1" ht="84" customHeight="1">
       <c r="A16" s="19">
         <v>10</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="49" t="s">
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="46" t="s">
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="60" t="s">
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="57" t="s">
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="103"/>
+      <c r="Z16" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="59"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="83"/>
       <c r="AE16" s="23" t="s">
         <v>84</v>
       </c>
@@ -3907,53 +3920,53 @@
       <c r="AG16" s="21">
         <v>43227</v>
       </c>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="52"/>
-      <c r="AJ16" s="53"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="76"/>
     </row>
     <row r="17" spans="1:36" s="20" customFormat="1" ht="90.75" customHeight="1">
       <c r="A17" s="19">
         <v>11</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="49" t="s">
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="46" t="s">
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="57" t="s">
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="27" t="s">
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="29"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="51"/>
       <c r="AE17" s="23" t="s">
         <v>84</v>
       </c>
@@ -3963,53 +3976,53 @@
       <c r="AG17" s="21">
         <v>43227</v>
       </c>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="53"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="76"/>
     </row>
     <row r="18" spans="1:36" s="20" customFormat="1" ht="77.25" customHeight="1">
       <c r="A18" s="19">
         <v>12</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="49" t="s">
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="46" t="s">
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="27" t="s">
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="27" t="s">
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="29"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="51"/>
       <c r="AE18" s="23" t="s">
         <v>84</v>
       </c>
@@ -4019,53 +4032,53 @@
       <c r="AG18" s="21">
         <v>43227</v>
       </c>
-      <c r="AH18" s="43"/>
-      <c r="AI18" s="43"/>
-      <c r="AJ18" s="44"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="67"/>
     </row>
     <row r="19" spans="1:36" s="20" customFormat="1" ht="29.25" customHeight="1">
       <c r="A19" s="19">
         <v>13</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="67" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="46" t="s">
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="27" t="s">
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="27" t="s">
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="29"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="51"/>
       <c r="AE19" s="23" t="s">
         <v>84</v>
       </c>
@@ -4075,49 +4088,49 @@
       <c r="AG19" s="21">
         <v>43227</v>
       </c>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="52"/>
-      <c r="AJ19" s="53"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="76"/>
     </row>
     <row r="20" spans="1:36" s="20" customFormat="1" ht="29.25" customHeight="1">
       <c r="A20" s="19">
         <v>14</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="46" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="27" t="s">
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="27" t="s">
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="29"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="51"/>
       <c r="AE20" s="23" t="s">
         <v>84</v>
       </c>
@@ -4127,49 +4140,49 @@
       <c r="AG20" s="21">
         <v>43227</v>
       </c>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="53"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="76"/>
     </row>
     <row r="21" spans="1:36" s="20" customFormat="1" ht="49.5" customHeight="1">
       <c r="A21" s="19">
         <v>15</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="37" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="27" t="s">
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="37" t="s">
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="39"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="33"/>
       <c r="AE21" s="23" t="s">
         <v>84</v>
       </c>
@@ -4179,45 +4192,45 @@
       <c r="AG21" s="21">
         <v>43227</v>
       </c>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="63"/>
+      <c r="AH21" s="104"/>
+      <c r="AI21" s="105"/>
+      <c r="AJ21" s="106"/>
     </row>
     <row r="22" spans="1:36" s="20" customFormat="1" ht="46.5" customHeight="1">
       <c r="A22" s="19">
         <v>16</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="27" t="s">
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="42"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="39"/>
       <c r="AE22" s="23" t="s">
         <v>84</v>
       </c>
@@ -4227,53 +4240,53 @@
       <c r="AG22" s="21">
         <v>43227</v>
       </c>
-      <c r="AH22" s="43"/>
-      <c r="AI22" s="43"/>
-      <c r="AJ22" s="44"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
+      <c r="AJ22" s="67"/>
     </row>
     <row r="23" spans="1:36" s="20" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="19">
         <v>17</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="67" t="s">
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="37" t="s">
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="27" t="s">
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="37" t="s">
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="39"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="33"/>
       <c r="AE23" s="23" t="s">
         <v>84</v>
       </c>
@@ -4283,45 +4296,45 @@
       <c r="AG23" s="21">
         <v>43227</v>
       </c>
-      <c r="AH23" s="43"/>
-      <c r="AI23" s="43"/>
-      <c r="AJ23" s="44"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="52"/>
+      <c r="AJ23" s="67"/>
     </row>
     <row r="24" spans="1:36" s="20" customFormat="1" ht="29.25" customHeight="1">
       <c r="A24" s="19">
         <v>18</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="27" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="42"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="39"/>
       <c r="AE24" s="23" t="s">
         <v>84</v>
       </c>
@@ -4331,145 +4344,145 @@
       <c r="AG24" s="21">
         <v>43227</v>
       </c>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="62"/>
-      <c r="AJ24" s="63"/>
+      <c r="AH24" s="104"/>
+      <c r="AI24" s="105"/>
+      <c r="AJ24" s="106"/>
     </row>
     <row r="25" spans="1:36" s="20" customFormat="1" ht="29.25" customHeight="1">
       <c r="A25" s="19">
         <v>19</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="46" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="30" t="s">
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="27" t="s">
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="29"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="51"/>
       <c r="AE25" s="23"/>
       <c r="AF25" s="21">
         <v>43222</v>
       </c>
       <c r="AG25" s="25"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="53"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="76"/>
     </row>
     <row r="26" spans="1:36" s="20" customFormat="1" ht="29.25" customHeight="1">
       <c r="A26" s="19">
         <v>20</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="46" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="30" t="s">
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="27" t="s">
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="29"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="51"/>
       <c r="AE26" s="23"/>
       <c r="AF26" s="21">
         <v>43222</v>
       </c>
       <c r="AG26" s="25"/>
-      <c r="AH26" s="43"/>
-      <c r="AI26" s="43"/>
-      <c r="AJ26" s="44"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="67"/>
     </row>
     <row r="27" spans="1:36" s="20" customFormat="1" ht="29.25" customHeight="1">
       <c r="A27" s="19">
         <v>21</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="46" t="s">
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="30" t="s">
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="27" t="s">
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="29"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="51"/>
       <c r="AE27" s="23" t="s">
         <v>84</v>
       </c>
@@ -4479,49 +4492,49 @@
       <c r="AG27" s="21">
         <v>43227</v>
       </c>
-      <c r="AH27" s="43"/>
-      <c r="AI27" s="43"/>
-      <c r="AJ27" s="44"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="67"/>
     </row>
     <row r="28" spans="1:36" s="20" customFormat="1" ht="29.25" customHeight="1">
       <c r="A28" s="19">
         <v>22</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="46" t="s">
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="30" t="s">
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="27" t="s">
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="29"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="51"/>
       <c r="AE28" s="23" t="s">
         <v>84</v>
       </c>
@@ -4531,105 +4544,105 @@
       <c r="AG28" s="21">
         <v>43227</v>
       </c>
-      <c r="AH28" s="43"/>
-      <c r="AI28" s="43"/>
-      <c r="AJ28" s="44"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="67"/>
     </row>
     <row r="29" spans="1:36" s="20" customFormat="1" ht="29.25" customHeight="1">
       <c r="A29" s="19">
         <v>23</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="49" t="s">
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="46" t="s">
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="27" t="s">
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="27" t="s">
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="29"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="51"/>
       <c r="AE29" s="23"/>
       <c r="AF29" s="21">
         <v>43222</v>
       </c>
       <c r="AG29" s="25"/>
-      <c r="AH29" s="43"/>
-      <c r="AI29" s="43"/>
-      <c r="AJ29" s="44"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="67"/>
     </row>
     <row r="30" spans="1:36" ht="15.95" customHeight="1">
       <c r="A30" s="19">
         <v>24</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="67" t="s">
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="H30" s="68"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="37" t="s">
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="27" t="s">
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="39"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="33"/>
       <c r="AE30" s="23" t="s">
         <v>84</v>
       </c>
@@ -4639,45 +4652,45 @@
       <c r="AG30" s="21">
         <v>43227</v>
       </c>
-      <c r="AH30" s="43"/>
-      <c r="AI30" s="43"/>
-      <c r="AJ30" s="44"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="67"/>
     </row>
     <row r="31" spans="1:36" ht="15.95" customHeight="1">
       <c r="A31" s="19">
         <v>25</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="27" t="s">
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="42"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="39"/>
       <c r="AE31" s="23" t="s">
         <v>84</v>
       </c>
@@ -4687,2393 +4700,2417 @@
       <c r="AG31" s="21">
         <v>43227</v>
       </c>
-      <c r="AH31" s="43"/>
-      <c r="AI31" s="43"/>
-      <c r="AJ31" s="44"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="67"/>
     </row>
     <row r="32" spans="1:36" ht="32.25" customHeight="1">
       <c r="A32" s="19">
         <v>26</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="94" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="99" t="s">
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="37" t="s">
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="39"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="33"/>
       <c r="AE32" s="23"/>
       <c r="AF32" s="25">
         <v>43238</v>
       </c>
       <c r="AG32" s="25"/>
-      <c r="AH32" s="43"/>
-      <c r="AI32" s="43"/>
-      <c r="AJ32" s="43"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
     </row>
     <row r="33" spans="1:36" ht="32.25" customHeight="1">
       <c r="A33" s="19">
         <v>27</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="94" t="s">
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="97"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="97"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="42"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="39"/>
       <c r="AE33" s="23"/>
       <c r="AF33" s="25">
         <v>43238</v>
       </c>
       <c r="AG33" s="25"/>
-      <c r="AH33" s="43"/>
-      <c r="AI33" s="43"/>
-      <c r="AJ33" s="43"/>
-    </row>
-    <row r="34" spans="1:36" s="104" customFormat="1" ht="34.5" customHeight="1">
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+    </row>
+    <row r="34" spans="1:36" s="29" customFormat="1" ht="34.5" customHeight="1">
       <c r="A34" s="19">
         <v>28</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="95" t="s">
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="102"/>
-      <c r="AF34" s="103"/>
-      <c r="AG34" s="103"/>
-      <c r="AH34" s="52"/>
-      <c r="AI34" s="52"/>
-      <c r="AJ34" s="52"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="53"/>
+      <c r="AC34" s="53"/>
+      <c r="AD34" s="53"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="25">
+        <v>43238</v>
+      </c>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="63"/>
     </row>
     <row r="35" spans="1:36" ht="36" customHeight="1">
       <c r="A35" s="19">
         <v>29</v>
       </c>
-      <c r="B35" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94" t="s">
+      <c r="B35" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="U35" s="95"/>
-      <c r="V35" s="95"/>
-      <c r="W35" s="95"/>
-      <c r="X35" s="95"/>
-      <c r="Y35" s="95"/>
-      <c r="Z35" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA35" s="95"/>
-      <c r="AB35" s="95"/>
-      <c r="AC35" s="95"/>
-      <c r="AD35" s="95"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="53"/>
+      <c r="AD35" s="53"/>
       <c r="AE35" s="23"/>
-      <c r="AF35" s="25"/>
+      <c r="AF35" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG35" s="25"/>
-      <c r="AH35" s="43"/>
-      <c r="AI35" s="43"/>
-      <c r="AJ35" s="43"/>
-    </row>
-    <row r="36" spans="1:36" ht="15.95" customHeight="1">
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="52"/>
+    </row>
+    <row r="36" spans="1:36" ht="32.25" customHeight="1">
       <c r="A36" s="19">
         <v>30</v>
       </c>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="95" t="s">
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="95" t="s">
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="95"/>
-      <c r="X36" s="95"/>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA36" s="95"/>
-      <c r="AB36" s="95"/>
-      <c r="AC36" s="95"/>
-      <c r="AD36" s="95"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="53"/>
+      <c r="AD36" s="53"/>
       <c r="AE36" s="23"/>
-      <c r="AF36" s="25"/>
+      <c r="AF36" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG36" s="25"/>
-      <c r="AH36" s="43"/>
-      <c r="AI36" s="43"/>
-      <c r="AJ36" s="43"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
+      <c r="AJ36" s="52"/>
     </row>
     <row r="37" spans="1:36" ht="52.5" customHeight="1">
       <c r="A37" s="19">
         <v>31</v>
       </c>
-      <c r="B37" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94" t="s">
+      <c r="B37" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="95" t="s">
-        <v>115</v>
-      </c>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="U37" s="95"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="95"/>
-      <c r="Z37" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA37" s="95"/>
-      <c r="AB37" s="95"/>
-      <c r="AC37" s="95"/>
-      <c r="AD37" s="95"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="53"/>
+      <c r="AD37" s="53"/>
       <c r="AE37" s="23"/>
-      <c r="AF37" s="25"/>
+      <c r="AF37" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG37" s="25"/>
-      <c r="AH37" s="43"/>
-      <c r="AI37" s="43"/>
-      <c r="AJ37" s="43"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="52"/>
+      <c r="AJ37" s="52"/>
     </row>
     <row r="38" spans="1:36" ht="33" customHeight="1">
       <c r="A38" s="19">
         <v>32</v>
       </c>
-      <c r="B38" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="94" t="s">
+      <c r="B38" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="95"/>
-      <c r="T38" s="37" t="s">
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="38"/>
-      <c r="AD38" s="39"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
+      <c r="AD38" s="33"/>
       <c r="AE38" s="23"/>
-      <c r="AF38" s="25"/>
+      <c r="AF38" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG38" s="25"/>
-      <c r="AH38" s="43"/>
-      <c r="AI38" s="43"/>
-      <c r="AJ38" s="43"/>
+      <c r="AH38" s="52"/>
+      <c r="AI38" s="52"/>
+      <c r="AJ38" s="52"/>
     </row>
     <row r="39" spans="1:36" ht="33" customHeight="1">
       <c r="A39" s="19">
         <v>33</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="94" t="s">
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="41"/>
-      <c r="AD39" s="42"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="39"/>
       <c r="AE39" s="23"/>
-      <c r="AF39" s="25"/>
+      <c r="AF39" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG39" s="25"/>
-      <c r="AH39" s="43"/>
-      <c r="AI39" s="43"/>
-      <c r="AJ39" s="43"/>
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="52"/>
+      <c r="AJ39" s="52"/>
     </row>
     <row r="40" spans="1:36" ht="46.5" customHeight="1">
       <c r="A40" s="19">
         <v>34</v>
       </c>
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="105" t="s">
-        <v>126</v>
-      </c>
-      <c r="U40" s="106"/>
-      <c r="V40" s="106"/>
-      <c r="W40" s="106"/>
-      <c r="X40" s="106"/>
-      <c r="Y40" s="107"/>
-      <c r="Z40" s="105" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA40" s="106"/>
-      <c r="AB40" s="106"/>
-      <c r="AC40" s="106"/>
-      <c r="AD40" s="107"/>
+      <c r="AA40" s="55"/>
+      <c r="AB40" s="55"/>
+      <c r="AC40" s="55"/>
+      <c r="AD40" s="56"/>
       <c r="AE40" s="23"/>
-      <c r="AF40" s="25"/>
+      <c r="AF40" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG40" s="25"/>
-      <c r="AH40" s="43"/>
-      <c r="AI40" s="43"/>
-      <c r="AJ40" s="43"/>
+      <c r="AH40" s="52"/>
+      <c r="AI40" s="52"/>
+      <c r="AJ40" s="52"/>
     </row>
     <row r="41" spans="1:36" ht="46.5" customHeight="1">
       <c r="A41" s="19">
         <v>35</v>
       </c>
-      <c r="B41" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94" t="s">
+      <c r="B41" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="U41" s="100"/>
-      <c r="V41" s="100"/>
-      <c r="W41" s="100"/>
-      <c r="X41" s="100"/>
-      <c r="Y41" s="101"/>
-      <c r="Z41" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="29"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="51"/>
       <c r="AE41" s="23"/>
-      <c r="AF41" s="25"/>
+      <c r="AF41" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG41" s="25"/>
-      <c r="AH41" s="43"/>
-      <c r="AI41" s="43"/>
-      <c r="AJ41" s="43"/>
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="52"/>
     </row>
     <row r="42" spans="1:36" ht="46.5" customHeight="1">
       <c r="A42" s="19">
         <v>36</v>
       </c>
-      <c r="B42" s="94" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94" t="s">
+      <c r="B42" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="66"/>
-      <c r="T42" s="108"/>
-      <c r="U42" s="109"/>
-      <c r="V42" s="109"/>
-      <c r="W42" s="109"/>
-      <c r="X42" s="109"/>
-      <c r="Y42" s="110"/>
-      <c r="Z42" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="51"/>
       <c r="AE42" s="23"/>
-      <c r="AF42" s="25"/>
+      <c r="AF42" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG42" s="25"/>
-      <c r="AH42" s="43"/>
-      <c r="AI42" s="43"/>
-      <c r="AJ42" s="43"/>
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="52"/>
+      <c r="AJ42" s="52"/>
     </row>
     <row r="43" spans="1:36" ht="46.5" customHeight="1">
       <c r="A43" s="19">
         <v>37</v>
       </c>
-      <c r="B43" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94" t="s">
+      <c r="B43" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="65"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="65"/>
-      <c r="R43" s="65"/>
-      <c r="S43" s="66"/>
-      <c r="T43" s="108"/>
-      <c r="U43" s="109"/>
-      <c r="V43" s="109"/>
-      <c r="W43" s="109"/>
-      <c r="X43" s="109"/>
-      <c r="Y43" s="110"/>
-      <c r="Z43" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="29"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="50"/>
+      <c r="AC43" s="50"/>
+      <c r="AD43" s="51"/>
       <c r="AE43" s="23"/>
-      <c r="AF43" s="25"/>
+      <c r="AF43" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG43" s="25"/>
-      <c r="AH43" s="43"/>
-      <c r="AI43" s="43"/>
-      <c r="AJ43" s="43"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="52"/>
+      <c r="AJ43" s="52"/>
     </row>
     <row r="44" spans="1:36" ht="46.5" customHeight="1">
       <c r="A44" s="19">
         <v>38</v>
       </c>
-      <c r="B44" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94" t="s">
+      <c r="B44" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="65"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="108"/>
-      <c r="U44" s="109"/>
-      <c r="V44" s="109"/>
-      <c r="W44" s="109"/>
-      <c r="X44" s="109"/>
-      <c r="Y44" s="110"/>
-      <c r="Z44" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="29"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="45"/>
+      <c r="Z44" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="50"/>
+      <c r="AD44" s="51"/>
       <c r="AE44" s="23"/>
-      <c r="AF44" s="25"/>
+      <c r="AF44" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG44" s="25"/>
-      <c r="AH44" s="43"/>
-      <c r="AI44" s="43"/>
-      <c r="AJ44" s="43"/>
+      <c r="AH44" s="52"/>
+      <c r="AI44" s="52"/>
+      <c r="AJ44" s="52"/>
     </row>
     <row r="45" spans="1:36" ht="46.5" customHeight="1">
       <c r="A45" s="19">
         <v>39</v>
       </c>
-      <c r="B45" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94" t="s">
+      <c r="B45" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="65"/>
-      <c r="O45" s="65"/>
-      <c r="P45" s="65"/>
-      <c r="Q45" s="65"/>
-      <c r="R45" s="65"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="108"/>
-      <c r="U45" s="109"/>
-      <c r="V45" s="109"/>
-      <c r="W45" s="109"/>
-      <c r="X45" s="109"/>
-      <c r="Y45" s="110"/>
-      <c r="Z45" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="29"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="45"/>
+      <c r="Z45" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA45" s="50"/>
+      <c r="AB45" s="50"/>
+      <c r="AC45" s="50"/>
+      <c r="AD45" s="51"/>
       <c r="AE45" s="23"/>
-      <c r="AF45" s="25"/>
+      <c r="AF45" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG45" s="25"/>
-      <c r="AH45" s="43"/>
-      <c r="AI45" s="43"/>
-      <c r="AJ45" s="43"/>
+      <c r="AH45" s="52"/>
+      <c r="AI45" s="52"/>
+      <c r="AJ45" s="52"/>
     </row>
     <row r="46" spans="1:36" ht="46.5" customHeight="1">
       <c r="A46" s="19">
         <v>40</v>
       </c>
-      <c r="B46" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94" t="s">
+      <c r="B46" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="96"/>
-      <c r="U46" s="97"/>
-      <c r="V46" s="97"/>
-      <c r="W46" s="97"/>
-      <c r="X46" s="97"/>
-      <c r="Y46" s="98"/>
-      <c r="Z46" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="47"/>
+      <c r="X46" s="47"/>
+      <c r="Y46" s="48"/>
+      <c r="Z46" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA46" s="50"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="50"/>
+      <c r="AD46" s="51"/>
       <c r="AE46" s="23"/>
-      <c r="AF46" s="25"/>
+      <c r="AF46" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG46" s="25"/>
-      <c r="AH46" s="43"/>
-      <c r="AI46" s="43"/>
-      <c r="AJ46" s="43"/>
+      <c r="AH46" s="52"/>
+      <c r="AI46" s="52"/>
+      <c r="AJ46" s="52"/>
     </row>
     <row r="47" spans="1:36" ht="39.75" customHeight="1">
       <c r="A47" s="19">
         <v>41</v>
       </c>
-      <c r="B47" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94" t="s">
+      <c r="B47" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="U47" s="100"/>
-      <c r="V47" s="100"/>
-      <c r="W47" s="100"/>
-      <c r="X47" s="100"/>
-      <c r="Y47" s="101"/>
-      <c r="Z47" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA47" s="38"/>
-      <c r="AB47" s="38"/>
-      <c r="AC47" s="38"/>
-      <c r="AD47" s="39"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="33"/>
       <c r="AE47" s="23"/>
-      <c r="AF47" s="25"/>
+      <c r="AF47" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG47" s="25"/>
-      <c r="AH47" s="43"/>
-      <c r="AI47" s="43"/>
-      <c r="AJ47" s="43"/>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="52"/>
     </row>
     <row r="48" spans="1:36" ht="39.75" customHeight="1">
       <c r="A48" s="19">
         <v>42</v>
       </c>
-      <c r="B48" s="94" t="s">
-        <v>129</v>
-      </c>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94" t="s">
+      <c r="B48" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65"/>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="65"/>
-      <c r="S48" s="66"/>
-      <c r="T48" s="108"/>
-      <c r="U48" s="109"/>
-      <c r="V48" s="109"/>
-      <c r="W48" s="109"/>
-      <c r="X48" s="109"/>
-      <c r="Y48" s="110"/>
-      <c r="Z48" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA48" s="38"/>
-      <c r="AB48" s="38"/>
-      <c r="AC48" s="38"/>
-      <c r="AD48" s="39"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="33"/>
       <c r="AE48" s="23"/>
-      <c r="AF48" s="25"/>
+      <c r="AF48" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG48" s="25"/>
-      <c r="AH48" s="43"/>
-      <c r="AI48" s="43"/>
-      <c r="AJ48" s="43"/>
+      <c r="AH48" s="52"/>
+      <c r="AI48" s="52"/>
+      <c r="AJ48" s="52"/>
     </row>
     <row r="49" spans="1:36" ht="39.75" customHeight="1">
       <c r="A49" s="19">
         <v>43</v>
       </c>
-      <c r="B49" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94" t="s">
+      <c r="B49" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="65"/>
-      <c r="S49" s="66"/>
-      <c r="T49" s="108"/>
-      <c r="U49" s="109"/>
-      <c r="V49" s="109"/>
-      <c r="W49" s="109"/>
-      <c r="X49" s="109"/>
-      <c r="Y49" s="110"/>
-      <c r="Z49" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA49" s="38"/>
-      <c r="AB49" s="38"/>
-      <c r="AC49" s="38"/>
-      <c r="AD49" s="39"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="32"/>
+      <c r="AD49" s="33"/>
       <c r="AE49" s="23"/>
-      <c r="AF49" s="25"/>
+      <c r="AF49" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG49" s="25"/>
-      <c r="AH49" s="43"/>
-      <c r="AI49" s="43"/>
-      <c r="AJ49" s="43"/>
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="52"/>
     </row>
     <row r="50" spans="1:36" ht="39.75" customHeight="1">
       <c r="A50" s="19">
         <v>44</v>
       </c>
-      <c r="B50" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94" t="s">
+      <c r="B50" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H50" s="94"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="65"/>
-      <c r="O50" s="65"/>
-      <c r="P50" s="65"/>
-      <c r="Q50" s="65"/>
-      <c r="R50" s="65"/>
-      <c r="S50" s="66"/>
-      <c r="T50" s="108"/>
-      <c r="U50" s="109"/>
-      <c r="V50" s="109"/>
-      <c r="W50" s="109"/>
-      <c r="X50" s="109"/>
-      <c r="Y50" s="110"/>
-      <c r="Z50" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA50" s="38"/>
-      <c r="AB50" s="38"/>
-      <c r="AC50" s="38"/>
-      <c r="AD50" s="39"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="45"/>
+      <c r="Z50" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="33"/>
       <c r="AE50" s="23"/>
-      <c r="AF50" s="25"/>
+      <c r="AF50" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG50" s="25"/>
-      <c r="AH50" s="43"/>
-      <c r="AI50" s="43"/>
-      <c r="AJ50" s="43"/>
+      <c r="AH50" s="52"/>
+      <c r="AI50" s="52"/>
+      <c r="AJ50" s="52"/>
     </row>
     <row r="51" spans="1:36" ht="39.75" customHeight="1">
       <c r="A51" s="19">
         <v>45</v>
       </c>
-      <c r="B51" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94" t="s">
+      <c r="B51" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="65"/>
-      <c r="S51" s="66"/>
-      <c r="T51" s="108"/>
-      <c r="U51" s="109"/>
-      <c r="V51" s="109"/>
-      <c r="W51" s="109"/>
-      <c r="X51" s="109"/>
-      <c r="Y51" s="110"/>
-      <c r="Z51" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA51" s="38"/>
-      <c r="AB51" s="38"/>
-      <c r="AC51" s="38"/>
-      <c r="AD51" s="39"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="45"/>
+      <c r="Z51" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="33"/>
       <c r="AE51" s="23"/>
-      <c r="AF51" s="25"/>
+      <c r="AF51" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG51" s="25"/>
-      <c r="AH51" s="43"/>
-      <c r="AI51" s="43"/>
-      <c r="AJ51" s="43"/>
+      <c r="AH51" s="52"/>
+      <c r="AI51" s="52"/>
+      <c r="AJ51" s="52"/>
     </row>
     <row r="52" spans="1:36" ht="39.75" customHeight="1">
       <c r="A52" s="19">
         <v>46</v>
       </c>
-      <c r="B52" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94" t="s">
+      <c r="B52" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="65"/>
-      <c r="S52" s="66"/>
-      <c r="T52" s="108"/>
-      <c r="U52" s="109"/>
-      <c r="V52" s="109"/>
-      <c r="W52" s="109"/>
-      <c r="X52" s="109"/>
-      <c r="Y52" s="110"/>
-      <c r="Z52" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA52" s="38"/>
-      <c r="AB52" s="38"/>
-      <c r="AC52" s="38"/>
-      <c r="AD52" s="39"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="44"/>
+      <c r="Y52" s="45"/>
+      <c r="Z52" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA52" s="32"/>
+      <c r="AB52" s="32"/>
+      <c r="AC52" s="32"/>
+      <c r="AD52" s="33"/>
       <c r="AE52" s="23"/>
-      <c r="AF52" s="25"/>
+      <c r="AF52" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG52" s="25"/>
-      <c r="AH52" s="43"/>
-      <c r="AI52" s="43"/>
-      <c r="AJ52" s="43"/>
+      <c r="AH52" s="52"/>
+      <c r="AI52" s="52"/>
+      <c r="AJ52" s="52"/>
     </row>
     <row r="53" spans="1:36" ht="39.75" customHeight="1">
       <c r="A53" s="19">
         <v>47</v>
       </c>
-      <c r="B53" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94" t="s">
+      <c r="B53" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="42"/>
-      <c r="T53" s="96"/>
-      <c r="U53" s="97"/>
-      <c r="V53" s="97"/>
-      <c r="W53" s="97"/>
-      <c r="X53" s="97"/>
-      <c r="Y53" s="98"/>
-      <c r="Z53" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA53" s="38"/>
-      <c r="AB53" s="38"/>
-      <c r="AC53" s="38"/>
-      <c r="AD53" s="39"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+      <c r="Y53" s="48"/>
+      <c r="Z53" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA53" s="32"/>
+      <c r="AB53" s="32"/>
+      <c r="AC53" s="32"/>
+      <c r="AD53" s="33"/>
       <c r="AE53" s="23"/>
-      <c r="AF53" s="25"/>
+      <c r="AF53" s="25">
+        <v>43238</v>
+      </c>
       <c r="AG53" s="25"/>
-      <c r="AH53" s="43"/>
-      <c r="AI53" s="43"/>
-      <c r="AJ53" s="43"/>
+      <c r="AH53" s="52"/>
+      <c r="AI53" s="52"/>
+      <c r="AJ53" s="52"/>
     </row>
     <row r="54" spans="1:36" ht="33.75" customHeight="1">
       <c r="A54" s="19">
         <v>48</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="95"/>
-      <c r="K54" s="95"/>
-      <c r="L54" s="95"/>
-      <c r="M54" s="95"/>
-      <c r="N54" s="95"/>
-      <c r="O54" s="95"/>
-      <c r="P54" s="95"/>
-      <c r="Q54" s="95"/>
-      <c r="R54" s="95"/>
-      <c r="S54" s="95"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
-      <c r="X54" s="38"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="37"/>
-      <c r="AA54" s="38"/>
-      <c r="AB54" s="38"/>
-      <c r="AC54" s="38"/>
-      <c r="AD54" s="39"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="31"/>
+      <c r="AA54" s="32"/>
+      <c r="AB54" s="32"/>
+      <c r="AC54" s="32"/>
+      <c r="AD54" s="33"/>
       <c r="AE54" s="23"/>
       <c r="AF54" s="25"/>
       <c r="AG54" s="25"/>
-      <c r="AH54" s="43"/>
-      <c r="AI54" s="43"/>
-      <c r="AJ54" s="43"/>
+      <c r="AH54" s="52"/>
+      <c r="AI54" s="52"/>
+      <c r="AJ54" s="52"/>
     </row>
     <row r="55" spans="1:36" ht="33.75" customHeight="1">
       <c r="A55" s="19">
         <v>49</v>
       </c>
-      <c r="B55" s="94"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H55" s="94"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="95"/>
-      <c r="K55" s="95"/>
-      <c r="L55" s="95"/>
-      <c r="M55" s="95"/>
-      <c r="N55" s="95"/>
-      <c r="O55" s="95"/>
-      <c r="P55" s="95"/>
-      <c r="Q55" s="95"/>
-      <c r="R55" s="95"/>
-      <c r="S55" s="95"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
-      <c r="W55" s="38"/>
-      <c r="X55" s="38"/>
-      <c r="Y55" s="39"/>
-      <c r="Z55" s="37"/>
-      <c r="AA55" s="38"/>
-      <c r="AB55" s="38"/>
-      <c r="AC55" s="38"/>
-      <c r="AD55" s="39"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="31"/>
+      <c r="AA55" s="32"/>
+      <c r="AB55" s="32"/>
+      <c r="AC55" s="32"/>
+      <c r="AD55" s="33"/>
       <c r="AE55" s="23"/>
       <c r="AF55" s="25"/>
       <c r="AG55" s="25"/>
-      <c r="AH55" s="43"/>
-      <c r="AI55" s="43"/>
-      <c r="AJ55" s="43"/>
+      <c r="AH55" s="52"/>
+      <c r="AI55" s="52"/>
+      <c r="AJ55" s="52"/>
     </row>
     <row r="56" spans="1:36" ht="33.75" customHeight="1">
       <c r="A56" s="19">
         <v>50</v>
       </c>
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="95"/>
-      <c r="K56" s="95"/>
-      <c r="L56" s="95"/>
-      <c r="M56" s="95"/>
-      <c r="N56" s="95"/>
-      <c r="O56" s="95"/>
-      <c r="P56" s="95"/>
-      <c r="Q56" s="95"/>
-      <c r="R56" s="95"/>
-      <c r="S56" s="95"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="38"/>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="39"/>
-      <c r="Z56" s="37"/>
-      <c r="AA56" s="38"/>
-      <c r="AB56" s="38"/>
-      <c r="AC56" s="38"/>
-      <c r="AD56" s="39"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="31"/>
+      <c r="AA56" s="32"/>
+      <c r="AB56" s="32"/>
+      <c r="AC56" s="32"/>
+      <c r="AD56" s="33"/>
       <c r="AE56" s="23"/>
       <c r="AF56" s="25"/>
       <c r="AG56" s="25"/>
-      <c r="AH56" s="43"/>
-      <c r="AI56" s="43"/>
-      <c r="AJ56" s="43"/>
+      <c r="AH56" s="52"/>
+      <c r="AI56" s="52"/>
+      <c r="AJ56" s="52"/>
     </row>
     <row r="57" spans="1:36" ht="33.75" customHeight="1">
       <c r="A57" s="19">
         <v>51</v>
       </c>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="95"/>
-      <c r="K57" s="95"/>
-      <c r="L57" s="95"/>
-      <c r="M57" s="95"/>
-      <c r="N57" s="95"/>
-      <c r="O57" s="95"/>
-      <c r="P57" s="95"/>
-      <c r="Q57" s="95"/>
-      <c r="R57" s="95"/>
-      <c r="S57" s="95"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="38"/>
-      <c r="X57" s="38"/>
-      <c r="Y57" s="39"/>
-      <c r="Z57" s="37"/>
-      <c r="AA57" s="38"/>
-      <c r="AB57" s="38"/>
-      <c r="AC57" s="38"/>
-      <c r="AD57" s="39"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="53"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="31"/>
+      <c r="AA57" s="32"/>
+      <c r="AB57" s="32"/>
+      <c r="AC57" s="32"/>
+      <c r="AD57" s="33"/>
       <c r="AE57" s="23"/>
       <c r="AF57" s="25"/>
       <c r="AG57" s="25"/>
-      <c r="AH57" s="43"/>
-      <c r="AI57" s="43"/>
-      <c r="AJ57" s="43"/>
+      <c r="AH57" s="52"/>
+      <c r="AI57" s="52"/>
+      <c r="AJ57" s="52"/>
     </row>
     <row r="58" spans="1:36" ht="33.75" customHeight="1">
       <c r="A58" s="19">
         <v>52</v>
       </c>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H58" s="94"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="95"/>
-      <c r="K58" s="95"/>
-      <c r="L58" s="95"/>
-      <c r="M58" s="95"/>
-      <c r="N58" s="95"/>
-      <c r="O58" s="95"/>
-      <c r="P58" s="95"/>
-      <c r="Q58" s="95"/>
-      <c r="R58" s="95"/>
-      <c r="S58" s="95"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="38"/>
-      <c r="W58" s="38"/>
-      <c r="X58" s="38"/>
-      <c r="Y58" s="39"/>
-      <c r="Z58" s="37"/>
-      <c r="AA58" s="38"/>
-      <c r="AB58" s="38"/>
-      <c r="AC58" s="38"/>
-      <c r="AD58" s="39"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="53"/>
+      <c r="S58" s="53"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="32"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="32"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="31"/>
+      <c r="AA58" s="32"/>
+      <c r="AB58" s="32"/>
+      <c r="AC58" s="32"/>
+      <c r="AD58" s="33"/>
       <c r="AE58" s="23"/>
       <c r="AF58" s="25"/>
       <c r="AG58" s="25"/>
-      <c r="AH58" s="43"/>
-      <c r="AI58" s="43"/>
-      <c r="AJ58" s="43"/>
+      <c r="AH58" s="52"/>
+      <c r="AI58" s="52"/>
+      <c r="AJ58" s="52"/>
     </row>
     <row r="59" spans="1:36" ht="33.75" customHeight="1">
       <c r="A59" s="19">
         <v>53</v>
       </c>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="95"/>
-      <c r="K59" s="95"/>
-      <c r="L59" s="95"/>
-      <c r="M59" s="95"/>
-      <c r="N59" s="95"/>
-      <c r="O59" s="95"/>
-      <c r="P59" s="95"/>
-      <c r="Q59" s="95"/>
-      <c r="R59" s="95"/>
-      <c r="S59" s="95"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="38"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="37"/>
-      <c r="AA59" s="38"/>
-      <c r="AB59" s="38"/>
-      <c r="AC59" s="38"/>
-      <c r="AD59" s="39"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="31"/>
+      <c r="AA59" s="32"/>
+      <c r="AB59" s="32"/>
+      <c r="AC59" s="32"/>
+      <c r="AD59" s="33"/>
       <c r="AE59" s="23"/>
       <c r="AF59" s="25"/>
       <c r="AG59" s="25"/>
-      <c r="AH59" s="43"/>
-      <c r="AI59" s="43"/>
-      <c r="AJ59" s="43"/>
+      <c r="AH59" s="52"/>
+      <c r="AI59" s="52"/>
+      <c r="AJ59" s="52"/>
     </row>
     <row r="60" spans="1:36" ht="33.75" customHeight="1">
       <c r="A60" s="19">
         <v>54</v>
       </c>
-      <c r="B60" s="94"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H60" s="94"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="95"/>
-      <c r="K60" s="95"/>
-      <c r="L60" s="95"/>
-      <c r="M60" s="95"/>
-      <c r="N60" s="95"/>
-      <c r="O60" s="95"/>
-      <c r="P60" s="95"/>
-      <c r="Q60" s="95"/>
-      <c r="R60" s="95"/>
-      <c r="S60" s="95"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="38"/>
-      <c r="W60" s="38"/>
-      <c r="X60" s="38"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="37"/>
-      <c r="AA60" s="38"/>
-      <c r="AB60" s="38"/>
-      <c r="AC60" s="38"/>
-      <c r="AD60" s="39"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="53"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="32"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="32"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="31"/>
+      <c r="AA60" s="32"/>
+      <c r="AB60" s="32"/>
+      <c r="AC60" s="32"/>
+      <c r="AD60" s="33"/>
       <c r="AE60" s="23"/>
       <c r="AF60" s="25"/>
       <c r="AG60" s="25"/>
-      <c r="AH60" s="43"/>
-      <c r="AI60" s="43"/>
-      <c r="AJ60" s="43"/>
+      <c r="AH60" s="52"/>
+      <c r="AI60" s="52"/>
+      <c r="AJ60" s="52"/>
     </row>
     <row r="61" spans="1:36" ht="33.75" customHeight="1">
       <c r="A61" s="19">
         <v>55</v>
       </c>
-      <c r="B61" s="94"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H61" s="94"/>
-      <c r="I61" s="94"/>
-      <c r="J61" s="95"/>
-      <c r="K61" s="95"/>
-      <c r="L61" s="95"/>
-      <c r="M61" s="95"/>
-      <c r="N61" s="95"/>
-      <c r="O61" s="95"/>
-      <c r="P61" s="95"/>
-      <c r="Q61" s="95"/>
-      <c r="R61" s="95"/>
-      <c r="S61" s="95"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
-      <c r="W61" s="38"/>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="39"/>
-      <c r="Z61" s="37"/>
-      <c r="AA61" s="38"/>
-      <c r="AB61" s="38"/>
-      <c r="AC61" s="38"/>
-      <c r="AD61" s="39"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="32"/>
+      <c r="V61" s="32"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="32"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="31"/>
+      <c r="AA61" s="32"/>
+      <c r="AB61" s="32"/>
+      <c r="AC61" s="32"/>
+      <c r="AD61" s="33"/>
       <c r="AE61" s="23"/>
       <c r="AF61" s="25"/>
       <c r="AG61" s="25"/>
-      <c r="AH61" s="43"/>
-      <c r="AI61" s="43"/>
-      <c r="AJ61" s="43"/>
+      <c r="AH61" s="52"/>
+      <c r="AI61" s="52"/>
+      <c r="AJ61" s="52"/>
     </row>
     <row r="62" spans="1:36" ht="33.75" customHeight="1">
       <c r="A62" s="19">
         <v>56</v>
       </c>
-      <c r="B62" s="94"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="94"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
-      <c r="M62" s="95"/>
-      <c r="N62" s="95"/>
-      <c r="O62" s="95"/>
-      <c r="P62" s="95"/>
-      <c r="Q62" s="95"/>
-      <c r="R62" s="95"/>
-      <c r="S62" s="95"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38"/>
-      <c r="W62" s="38"/>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="37"/>
-      <c r="AA62" s="38"/>
-      <c r="AB62" s="38"/>
-      <c r="AC62" s="38"/>
-      <c r="AD62" s="39"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="53"/>
+      <c r="Q62" s="53"/>
+      <c r="R62" s="53"/>
+      <c r="S62" s="53"/>
+      <c r="T62" s="31"/>
+      <c r="U62" s="32"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="32"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="31"/>
+      <c r="AA62" s="32"/>
+      <c r="AB62" s="32"/>
+      <c r="AC62" s="32"/>
+      <c r="AD62" s="33"/>
       <c r="AE62" s="23"/>
       <c r="AF62" s="25"/>
       <c r="AG62" s="25"/>
-      <c r="AH62" s="43"/>
-      <c r="AI62" s="43"/>
-      <c r="AJ62" s="43"/>
+      <c r="AH62" s="52"/>
+      <c r="AI62" s="52"/>
+      <c r="AJ62" s="52"/>
     </row>
     <row r="63" spans="1:36" ht="33.75" customHeight="1">
       <c r="A63" s="19">
         <v>57</v>
       </c>
-      <c r="B63" s="94"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="94"/>
-      <c r="I63" s="94"/>
-      <c r="J63" s="95"/>
-      <c r="K63" s="95"/>
-      <c r="L63" s="95"/>
-      <c r="M63" s="95"/>
-      <c r="N63" s="95"/>
-      <c r="O63" s="95"/>
-      <c r="P63" s="95"/>
-      <c r="Q63" s="95"/>
-      <c r="R63" s="95"/>
-      <c r="S63" s="95"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="38"/>
-      <c r="X63" s="38"/>
-      <c r="Y63" s="39"/>
-      <c r="Z63" s="37"/>
-      <c r="AA63" s="38"/>
-      <c r="AB63" s="38"/>
-      <c r="AC63" s="38"/>
-      <c r="AD63" s="39"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="53"/>
+      <c r="R63" s="53"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="32"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="31"/>
+      <c r="AA63" s="32"/>
+      <c r="AB63" s="32"/>
+      <c r="AC63" s="32"/>
+      <c r="AD63" s="33"/>
       <c r="AE63" s="23"/>
       <c r="AF63" s="25"/>
       <c r="AG63" s="25"/>
-      <c r="AH63" s="43"/>
-      <c r="AI63" s="43"/>
-      <c r="AJ63" s="43"/>
+      <c r="AH63" s="52"/>
+      <c r="AI63" s="52"/>
+      <c r="AJ63" s="52"/>
     </row>
     <row r="64" spans="1:36" ht="33.75" customHeight="1">
       <c r="A64" s="19">
         <v>58</v>
       </c>
-      <c r="B64" s="94"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="94"/>
-      <c r="I64" s="94"/>
-      <c r="J64" s="95"/>
-      <c r="K64" s="95"/>
-      <c r="L64" s="95"/>
-      <c r="M64" s="95"/>
-      <c r="N64" s="95"/>
-      <c r="O64" s="95"/>
-      <c r="P64" s="95"/>
-      <c r="Q64" s="95"/>
-      <c r="R64" s="95"/>
-      <c r="S64" s="95"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="38"/>
-      <c r="W64" s="38"/>
-      <c r="X64" s="38"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="37"/>
-      <c r="AA64" s="38"/>
-      <c r="AB64" s="38"/>
-      <c r="AC64" s="38"/>
-      <c r="AD64" s="39"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="53"/>
+      <c r="Q64" s="53"/>
+      <c r="R64" s="53"/>
+      <c r="S64" s="53"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="32"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="32"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="31"/>
+      <c r="AA64" s="32"/>
+      <c r="AB64" s="32"/>
+      <c r="AC64" s="32"/>
+      <c r="AD64" s="33"/>
       <c r="AE64" s="23"/>
       <c r="AF64" s="25"/>
       <c r="AG64" s="25"/>
-      <c r="AH64" s="43"/>
-      <c r="AI64" s="43"/>
-      <c r="AJ64" s="43"/>
+      <c r="AH64" s="52"/>
+      <c r="AI64" s="52"/>
+      <c r="AJ64" s="52"/>
     </row>
     <row r="65" spans="1:36" ht="33.75" customHeight="1">
       <c r="A65" s="19">
         <v>59</v>
       </c>
-      <c r="B65" s="94"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="94"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="94"/>
-      <c r="H65" s="94"/>
-      <c r="I65" s="94"/>
-      <c r="J65" s="95"/>
-      <c r="K65" s="95"/>
-      <c r="L65" s="95"/>
-      <c r="M65" s="95"/>
-      <c r="N65" s="95"/>
-      <c r="O65" s="95"/>
-      <c r="P65" s="95"/>
-      <c r="Q65" s="95"/>
-      <c r="R65" s="95"/>
-      <c r="S65" s="95"/>
-      <c r="T65" s="37"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="39"/>
-      <c r="Z65" s="37"/>
-      <c r="AA65" s="38"/>
-      <c r="AB65" s="38"/>
-      <c r="AC65" s="38"/>
-      <c r="AD65" s="39"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53"/>
+      <c r="O65" s="53"/>
+      <c r="P65" s="53"/>
+      <c r="Q65" s="53"/>
+      <c r="R65" s="53"/>
+      <c r="S65" s="53"/>
+      <c r="T65" s="31"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="32"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="32"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="31"/>
+      <c r="AA65" s="32"/>
+      <c r="AB65" s="32"/>
+      <c r="AC65" s="32"/>
+      <c r="AD65" s="33"/>
       <c r="AE65" s="23"/>
       <c r="AF65" s="25"/>
       <c r="AG65" s="25"/>
-      <c r="AH65" s="43"/>
-      <c r="AI65" s="43"/>
-      <c r="AJ65" s="43"/>
+      <c r="AH65" s="52"/>
+      <c r="AI65" s="52"/>
+      <c r="AJ65" s="52"/>
     </row>
     <row r="66" spans="1:36" ht="33.75" customHeight="1">
       <c r="A66" s="19">
         <v>60</v>
       </c>
-      <c r="B66" s="94"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="94"/>
-      <c r="I66" s="94"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="95"/>
-      <c r="L66" s="95"/>
-      <c r="M66" s="95"/>
-      <c r="N66" s="95"/>
-      <c r="O66" s="95"/>
-      <c r="P66" s="95"/>
-      <c r="Q66" s="95"/>
-      <c r="R66" s="95"/>
-      <c r="S66" s="95"/>
-      <c r="T66" s="37"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="38"/>
-      <c r="X66" s="38"/>
-      <c r="Y66" s="39"/>
-      <c r="Z66" s="37"/>
-      <c r="AA66" s="38"/>
-      <c r="AB66" s="38"/>
-      <c r="AC66" s="38"/>
-      <c r="AD66" s="39"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="53"/>
+      <c r="R66" s="53"/>
+      <c r="S66" s="53"/>
+      <c r="T66" s="31"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="32"/>
+      <c r="X66" s="32"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="31"/>
+      <c r="AA66" s="32"/>
+      <c r="AB66" s="32"/>
+      <c r="AC66" s="32"/>
+      <c r="AD66" s="33"/>
       <c r="AE66" s="23"/>
       <c r="AF66" s="25"/>
       <c r="AG66" s="25"/>
-      <c r="AH66" s="43"/>
-      <c r="AI66" s="43"/>
-      <c r="AJ66" s="43"/>
+      <c r="AH66" s="52"/>
+      <c r="AI66" s="52"/>
+      <c r="AJ66" s="52"/>
     </row>
     <row r="67" spans="1:36" ht="33.75" customHeight="1">
       <c r="A67" s="19">
         <v>61</v>
       </c>
-      <c r="B67" s="94"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="95"/>
-      <c r="K67" s="95"/>
-      <c r="L67" s="95"/>
-      <c r="M67" s="95"/>
-      <c r="N67" s="95"/>
-      <c r="O67" s="95"/>
-      <c r="P67" s="95"/>
-      <c r="Q67" s="95"/>
-      <c r="R67" s="95"/>
-      <c r="S67" s="95"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="38"/>
-      <c r="W67" s="38"/>
-      <c r="X67" s="38"/>
-      <c r="Y67" s="39"/>
-      <c r="Z67" s="37"/>
-      <c r="AA67" s="38"/>
-      <c r="AB67" s="38"/>
-      <c r="AC67" s="38"/>
-      <c r="AD67" s="39"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="53"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="53"/>
+      <c r="O67" s="53"/>
+      <c r="P67" s="53"/>
+      <c r="Q67" s="53"/>
+      <c r="R67" s="53"/>
+      <c r="S67" s="53"/>
+      <c r="T67" s="31"/>
+      <c r="U67" s="32"/>
+      <c r="V67" s="32"/>
+      <c r="W67" s="32"/>
+      <c r="X67" s="32"/>
+      <c r="Y67" s="33"/>
+      <c r="Z67" s="31"/>
+      <c r="AA67" s="32"/>
+      <c r="AB67" s="32"/>
+      <c r="AC67" s="32"/>
+      <c r="AD67" s="33"/>
       <c r="AE67" s="23"/>
       <c r="AF67" s="25"/>
       <c r="AG67" s="25"/>
-      <c r="AH67" s="43"/>
-      <c r="AI67" s="43"/>
-      <c r="AJ67" s="43"/>
+      <c r="AH67" s="52"/>
+      <c r="AI67" s="52"/>
+      <c r="AJ67" s="52"/>
     </row>
     <row r="68" spans="1:36" ht="33.75" customHeight="1">
       <c r="A68" s="19">
         <v>62</v>
       </c>
-      <c r="B68" s="94"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
-      <c r="I68" s="94"/>
-      <c r="J68" s="95"/>
-      <c r="K68" s="95"/>
-      <c r="L68" s="95"/>
-      <c r="M68" s="95"/>
-      <c r="N68" s="95"/>
-      <c r="O68" s="95"/>
-      <c r="P68" s="95"/>
-      <c r="Q68" s="95"/>
-      <c r="R68" s="95"/>
-      <c r="S68" s="95"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="38"/>
-      <c r="X68" s="38"/>
-      <c r="Y68" s="39"/>
-      <c r="Z68" s="37"/>
-      <c r="AA68" s="38"/>
-      <c r="AB68" s="38"/>
-      <c r="AC68" s="38"/>
-      <c r="AD68" s="39"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="53"/>
+      <c r="R68" s="53"/>
+      <c r="S68" s="53"/>
+      <c r="T68" s="31"/>
+      <c r="U68" s="32"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="32"/>
+      <c r="X68" s="32"/>
+      <c r="Y68" s="33"/>
+      <c r="Z68" s="31"/>
+      <c r="AA68" s="32"/>
+      <c r="AB68" s="32"/>
+      <c r="AC68" s="32"/>
+      <c r="AD68" s="33"/>
       <c r="AE68" s="23"/>
       <c r="AF68" s="25"/>
       <c r="AG68" s="25"/>
-      <c r="AH68" s="43"/>
-      <c r="AI68" s="43"/>
-      <c r="AJ68" s="43"/>
+      <c r="AH68" s="52"/>
+      <c r="AI68" s="52"/>
+      <c r="AJ68" s="52"/>
     </row>
     <row r="69" spans="1:36" ht="33.75" customHeight="1">
       <c r="A69" s="19">
         <v>63</v>
       </c>
-      <c r="B69" s="94"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="94"/>
-      <c r="J69" s="95"/>
-      <c r="K69" s="95"/>
-      <c r="L69" s="95"/>
-      <c r="M69" s="95"/>
-      <c r="N69" s="95"/>
-      <c r="O69" s="95"/>
-      <c r="P69" s="95"/>
-      <c r="Q69" s="95"/>
-      <c r="R69" s="95"/>
-      <c r="S69" s="95"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="38"/>
-      <c r="W69" s="38"/>
-      <c r="X69" s="38"/>
-      <c r="Y69" s="39"/>
-      <c r="Z69" s="37"/>
-      <c r="AA69" s="38"/>
-      <c r="AB69" s="38"/>
-      <c r="AC69" s="38"/>
-      <c r="AD69" s="39"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="53"/>
+      <c r="R69" s="53"/>
+      <c r="S69" s="53"/>
+      <c r="T69" s="31"/>
+      <c r="U69" s="32"/>
+      <c r="V69" s="32"/>
+      <c r="W69" s="32"/>
+      <c r="X69" s="32"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="31"/>
+      <c r="AA69" s="32"/>
+      <c r="AB69" s="32"/>
+      <c r="AC69" s="32"/>
+      <c r="AD69" s="33"/>
       <c r="AE69" s="23"/>
       <c r="AF69" s="25"/>
       <c r="AG69" s="25"/>
-      <c r="AH69" s="43"/>
-      <c r="AI69" s="43"/>
-      <c r="AJ69" s="43"/>
+      <c r="AH69" s="52"/>
+      <c r="AI69" s="52"/>
+      <c r="AJ69" s="52"/>
     </row>
     <row r="70" spans="1:36" ht="33.75" customHeight="1">
       <c r="A70" s="19">
         <v>64</v>
       </c>
-      <c r="B70" s="94"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="94"/>
-      <c r="J70" s="95"/>
-      <c r="K70" s="95"/>
-      <c r="L70" s="95"/>
-      <c r="M70" s="95"/>
-      <c r="N70" s="95"/>
-      <c r="O70" s="95"/>
-      <c r="P70" s="95"/>
-      <c r="Q70" s="95"/>
-      <c r="R70" s="95"/>
-      <c r="S70" s="95"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="38"/>
-      <c r="X70" s="38"/>
-      <c r="Y70" s="39"/>
-      <c r="Z70" s="37"/>
-      <c r="AA70" s="38"/>
-      <c r="AB70" s="38"/>
-      <c r="AC70" s="38"/>
-      <c r="AD70" s="39"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="53"/>
+      <c r="P70" s="53"/>
+      <c r="Q70" s="53"/>
+      <c r="R70" s="53"/>
+      <c r="S70" s="53"/>
+      <c r="T70" s="31"/>
+      <c r="U70" s="32"/>
+      <c r="V70" s="32"/>
+      <c r="W70" s="32"/>
+      <c r="X70" s="32"/>
+      <c r="Y70" s="33"/>
+      <c r="Z70" s="31"/>
+      <c r="AA70" s="32"/>
+      <c r="AB70" s="32"/>
+      <c r="AC70" s="32"/>
+      <c r="AD70" s="33"/>
       <c r="AE70" s="23"/>
       <c r="AF70" s="25"/>
       <c r="AG70" s="25"/>
-      <c r="AH70" s="43"/>
-      <c r="AI70" s="43"/>
-      <c r="AJ70" s="43"/>
+      <c r="AH70" s="52"/>
+      <c r="AI70" s="52"/>
+      <c r="AJ70" s="52"/>
     </row>
     <row r="71" spans="1:36" ht="33.75" customHeight="1">
       <c r="A71" s="19">
         <v>65</v>
       </c>
-      <c r="B71" s="94"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="95"/>
-      <c r="K71" s="95"/>
-      <c r="L71" s="95"/>
-      <c r="M71" s="95"/>
-      <c r="N71" s="95"/>
-      <c r="O71" s="95"/>
-      <c r="P71" s="95"/>
-      <c r="Q71" s="95"/>
-      <c r="R71" s="95"/>
-      <c r="S71" s="95"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="38"/>
-      <c r="V71" s="38"/>
-      <c r="W71" s="38"/>
-      <c r="X71" s="38"/>
-      <c r="Y71" s="39"/>
-      <c r="Z71" s="37"/>
-      <c r="AA71" s="38"/>
-      <c r="AB71" s="38"/>
-      <c r="AC71" s="38"/>
-      <c r="AD71" s="39"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="53"/>
+      <c r="M71" s="53"/>
+      <c r="N71" s="53"/>
+      <c r="O71" s="53"/>
+      <c r="P71" s="53"/>
+      <c r="Q71" s="53"/>
+      <c r="R71" s="53"/>
+      <c r="S71" s="53"/>
+      <c r="T71" s="31"/>
+      <c r="U71" s="32"/>
+      <c r="V71" s="32"/>
+      <c r="W71" s="32"/>
+      <c r="X71" s="32"/>
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="31"/>
+      <c r="AA71" s="32"/>
+      <c r="AB71" s="32"/>
+      <c r="AC71" s="32"/>
+      <c r="AD71" s="33"/>
       <c r="AE71" s="23"/>
       <c r="AF71" s="25"/>
       <c r="AG71" s="25"/>
-      <c r="AH71" s="43"/>
-      <c r="AI71" s="43"/>
-      <c r="AJ71" s="43"/>
+      <c r="AH71" s="52"/>
+      <c r="AI71" s="52"/>
+      <c r="AJ71" s="52"/>
     </row>
     <row r="72" spans="1:36" ht="33.75" customHeight="1">
       <c r="A72" s="19">
         <v>66</v>
       </c>
-      <c r="B72" s="94"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="95"/>
-      <c r="K72" s="95"/>
-      <c r="L72" s="95"/>
-      <c r="M72" s="95"/>
-      <c r="N72" s="95"/>
-      <c r="O72" s="95"/>
-      <c r="P72" s="95"/>
-      <c r="Q72" s="95"/>
-      <c r="R72" s="95"/>
-      <c r="S72" s="95"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="38"/>
-      <c r="X72" s="38"/>
-      <c r="Y72" s="39"/>
-      <c r="Z72" s="37"/>
-      <c r="AA72" s="38"/>
-      <c r="AB72" s="38"/>
-      <c r="AC72" s="38"/>
-      <c r="AD72" s="39"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="53"/>
+      <c r="O72" s="53"/>
+      <c r="P72" s="53"/>
+      <c r="Q72" s="53"/>
+      <c r="R72" s="53"/>
+      <c r="S72" s="53"/>
+      <c r="T72" s="31"/>
+      <c r="U72" s="32"/>
+      <c r="V72" s="32"/>
+      <c r="W72" s="32"/>
+      <c r="X72" s="32"/>
+      <c r="Y72" s="33"/>
+      <c r="Z72" s="31"/>
+      <c r="AA72" s="32"/>
+      <c r="AB72" s="32"/>
+      <c r="AC72" s="32"/>
+      <c r="AD72" s="33"/>
       <c r="AE72" s="23"/>
       <c r="AF72" s="25"/>
       <c r="AG72" s="25"/>
-      <c r="AH72" s="43"/>
-      <c r="AI72" s="43"/>
-      <c r="AJ72" s="43"/>
+      <c r="AH72" s="52"/>
+      <c r="AI72" s="52"/>
+      <c r="AJ72" s="52"/>
     </row>
     <row r="73" spans="1:36" ht="33.75" customHeight="1">
       <c r="A73" s="19">
         <v>67</v>
       </c>
-      <c r="B73" s="94"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="95"/>
-      <c r="K73" s="95"/>
-      <c r="L73" s="95"/>
-      <c r="M73" s="95"/>
-      <c r="N73" s="95"/>
-      <c r="O73" s="95"/>
-      <c r="P73" s="95"/>
-      <c r="Q73" s="95"/>
-      <c r="R73" s="95"/>
-      <c r="S73" s="95"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="38"/>
-      <c r="V73" s="38"/>
-      <c r="W73" s="38"/>
-      <c r="X73" s="38"/>
-      <c r="Y73" s="39"/>
-      <c r="Z73" s="37"/>
-      <c r="AA73" s="38"/>
-      <c r="AB73" s="38"/>
-      <c r="AC73" s="38"/>
-      <c r="AD73" s="39"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="53"/>
+      <c r="M73" s="53"/>
+      <c r="N73" s="53"/>
+      <c r="O73" s="53"/>
+      <c r="P73" s="53"/>
+      <c r="Q73" s="53"/>
+      <c r="R73" s="53"/>
+      <c r="S73" s="53"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="32"/>
+      <c r="V73" s="32"/>
+      <c r="W73" s="32"/>
+      <c r="X73" s="32"/>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="31"/>
+      <c r="AA73" s="32"/>
+      <c r="AB73" s="32"/>
+      <c r="AC73" s="32"/>
+      <c r="AD73" s="33"/>
       <c r="AE73" s="23"/>
       <c r="AF73" s="25"/>
       <c r="AG73" s="25"/>
-      <c r="AH73" s="43"/>
-      <c r="AI73" s="43"/>
-      <c r="AJ73" s="43"/>
+      <c r="AH73" s="52"/>
+      <c r="AI73" s="52"/>
+      <c r="AJ73" s="52"/>
     </row>
     <row r="74" spans="1:36" ht="33.75" customHeight="1">
       <c r="A74" s="19">
         <v>68</v>
       </c>
-      <c r="B74" s="94"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="94"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94"/>
-      <c r="H74" s="94"/>
-      <c r="I74" s="94"/>
-      <c r="J74" s="95"/>
-      <c r="K74" s="95"/>
-      <c r="L74" s="95"/>
-      <c r="M74" s="95"/>
-      <c r="N74" s="95"/>
-      <c r="O74" s="95"/>
-      <c r="P74" s="95"/>
-      <c r="Q74" s="95"/>
-      <c r="R74" s="95"/>
-      <c r="S74" s="95"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="38"/>
-      <c r="V74" s="38"/>
-      <c r="W74" s="38"/>
-      <c r="X74" s="38"/>
-      <c r="Y74" s="39"/>
-      <c r="Z74" s="37"/>
-      <c r="AA74" s="38"/>
-      <c r="AB74" s="38"/>
-      <c r="AC74" s="38"/>
-      <c r="AD74" s="39"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="53"/>
+      <c r="L74" s="53"/>
+      <c r="M74" s="53"/>
+      <c r="N74" s="53"/>
+      <c r="O74" s="53"/>
+      <c r="P74" s="53"/>
+      <c r="Q74" s="53"/>
+      <c r="R74" s="53"/>
+      <c r="S74" s="53"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="32"/>
+      <c r="V74" s="32"/>
+      <c r="W74" s="32"/>
+      <c r="X74" s="32"/>
+      <c r="Y74" s="33"/>
+      <c r="Z74" s="31"/>
+      <c r="AA74" s="32"/>
+      <c r="AB74" s="32"/>
+      <c r="AC74" s="32"/>
+      <c r="AD74" s="33"/>
       <c r="AE74" s="23"/>
       <c r="AF74" s="25"/>
       <c r="AG74" s="25"/>
-      <c r="AH74" s="43"/>
-      <c r="AI74" s="43"/>
-      <c r="AJ74" s="43"/>
+      <c r="AH74" s="52"/>
+      <c r="AI74" s="52"/>
+      <c r="AJ74" s="52"/>
     </row>
     <row r="75" spans="1:36" ht="33.75" customHeight="1">
       <c r="A75" s="19">
         <v>69</v>
       </c>
-      <c r="B75" s="94"/>
-      <c r="C75" s="94"/>
-      <c r="D75" s="94"/>
-      <c r="E75" s="94"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="94"/>
-      <c r="H75" s="94"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="95"/>
-      <c r="K75" s="95"/>
-      <c r="L75" s="95"/>
-      <c r="M75" s="95"/>
-      <c r="N75" s="95"/>
-      <c r="O75" s="95"/>
-      <c r="P75" s="95"/>
-      <c r="Q75" s="95"/>
-      <c r="R75" s="95"/>
-      <c r="S75" s="95"/>
-      <c r="T75" s="37"/>
-      <c r="U75" s="38"/>
-      <c r="V75" s="38"/>
-      <c r="W75" s="38"/>
-      <c r="X75" s="38"/>
-      <c r="Y75" s="39"/>
-      <c r="Z75" s="37"/>
-      <c r="AA75" s="38"/>
-      <c r="AB75" s="38"/>
-      <c r="AC75" s="38"/>
-      <c r="AD75" s="39"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="53"/>
+      <c r="K75" s="53"/>
+      <c r="L75" s="53"/>
+      <c r="M75" s="53"/>
+      <c r="N75" s="53"/>
+      <c r="O75" s="53"/>
+      <c r="P75" s="53"/>
+      <c r="Q75" s="53"/>
+      <c r="R75" s="53"/>
+      <c r="S75" s="53"/>
+      <c r="T75" s="31"/>
+      <c r="U75" s="32"/>
+      <c r="V75" s="32"/>
+      <c r="W75" s="32"/>
+      <c r="X75" s="32"/>
+      <c r="Y75" s="33"/>
+      <c r="Z75" s="31"/>
+      <c r="AA75" s="32"/>
+      <c r="AB75" s="32"/>
+      <c r="AC75" s="32"/>
+      <c r="AD75" s="33"/>
       <c r="AE75" s="23"/>
       <c r="AF75" s="25"/>
       <c r="AG75" s="25"/>
-      <c r="AH75" s="43"/>
-      <c r="AI75" s="43"/>
-      <c r="AJ75" s="43"/>
+      <c r="AH75" s="52"/>
+      <c r="AI75" s="52"/>
+      <c r="AJ75" s="52"/>
     </row>
     <row r="76" spans="1:36" ht="33.75" customHeight="1">
       <c r="A76" s="19">
         <v>70</v>
       </c>
-      <c r="B76" s="94"/>
-      <c r="C76" s="94"/>
-      <c r="D76" s="94"/>
-      <c r="E76" s="94"/>
-      <c r="F76" s="94"/>
-      <c r="G76" s="94"/>
-      <c r="H76" s="94"/>
-      <c r="I76" s="94"/>
-      <c r="J76" s="95"/>
-      <c r="K76" s="95"/>
-      <c r="L76" s="95"/>
-      <c r="M76" s="95"/>
-      <c r="N76" s="95"/>
-      <c r="O76" s="95"/>
-      <c r="P76" s="95"/>
-      <c r="Q76" s="95"/>
-      <c r="R76" s="95"/>
-      <c r="S76" s="95"/>
-      <c r="T76" s="37"/>
-      <c r="U76" s="38"/>
-      <c r="V76" s="38"/>
-      <c r="W76" s="38"/>
-      <c r="X76" s="38"/>
-      <c r="Y76" s="39"/>
-      <c r="Z76" s="37"/>
-      <c r="AA76" s="38"/>
-      <c r="AB76" s="38"/>
-      <c r="AC76" s="38"/>
-      <c r="AD76" s="39"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="53"/>
+      <c r="M76" s="53"/>
+      <c r="N76" s="53"/>
+      <c r="O76" s="53"/>
+      <c r="P76" s="53"/>
+      <c r="Q76" s="53"/>
+      <c r="R76" s="53"/>
+      <c r="S76" s="53"/>
+      <c r="T76" s="31"/>
+      <c r="U76" s="32"/>
+      <c r="V76" s="32"/>
+      <c r="W76" s="32"/>
+      <c r="X76" s="32"/>
+      <c r="Y76" s="33"/>
+      <c r="Z76" s="31"/>
+      <c r="AA76" s="32"/>
+      <c r="AB76" s="32"/>
+      <c r="AC76" s="32"/>
+      <c r="AD76" s="33"/>
       <c r="AE76" s="23"/>
       <c r="AF76" s="25"/>
       <c r="AG76" s="25"/>
-      <c r="AH76" s="43"/>
-      <c r="AI76" s="43"/>
-      <c r="AJ76" s="43"/>
+      <c r="AH76" s="52"/>
+      <c r="AI76" s="52"/>
+      <c r="AJ76" s="52"/>
     </row>
     <row r="77" spans="1:36" ht="33.75" customHeight="1">
       <c r="A77" s="19">
         <v>71</v>
       </c>
-      <c r="B77" s="94"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="94"/>
-      <c r="F77" s="94"/>
-      <c r="G77" s="94"/>
-      <c r="H77" s="94"/>
-      <c r="I77" s="94"/>
-      <c r="J77" s="95"/>
-      <c r="K77" s="95"/>
-      <c r="L77" s="95"/>
-      <c r="M77" s="95"/>
-      <c r="N77" s="95"/>
-      <c r="O77" s="95"/>
-      <c r="P77" s="95"/>
-      <c r="Q77" s="95"/>
-      <c r="R77" s="95"/>
-      <c r="S77" s="95"/>
-      <c r="T77" s="37"/>
-      <c r="U77" s="38"/>
-      <c r="V77" s="38"/>
-      <c r="W77" s="38"/>
-      <c r="X77" s="38"/>
-      <c r="Y77" s="39"/>
-      <c r="Z77" s="37"/>
-      <c r="AA77" s="38"/>
-      <c r="AB77" s="38"/>
-      <c r="AC77" s="38"/>
-      <c r="AD77" s="39"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="53"/>
+      <c r="M77" s="53"/>
+      <c r="N77" s="53"/>
+      <c r="O77" s="53"/>
+      <c r="P77" s="53"/>
+      <c r="Q77" s="53"/>
+      <c r="R77" s="53"/>
+      <c r="S77" s="53"/>
+      <c r="T77" s="31"/>
+      <c r="U77" s="32"/>
+      <c r="V77" s="32"/>
+      <c r="W77" s="32"/>
+      <c r="X77" s="32"/>
+      <c r="Y77" s="33"/>
+      <c r="Z77" s="31"/>
+      <c r="AA77" s="32"/>
+      <c r="AB77" s="32"/>
+      <c r="AC77" s="32"/>
+      <c r="AD77" s="33"/>
       <c r="AE77" s="23"/>
       <c r="AF77" s="25"/>
       <c r="AG77" s="25"/>
-      <c r="AH77" s="43"/>
-      <c r="AI77" s="43"/>
-      <c r="AJ77" s="43"/>
+      <c r="AH77" s="52"/>
+      <c r="AI77" s="52"/>
+      <c r="AJ77" s="52"/>
     </row>
     <row r="78" spans="1:36" ht="33.75" customHeight="1">
       <c r="A78" s="19">
         <v>72</v>
       </c>
-      <c r="B78" s="94"/>
-      <c r="C78" s="94"/>
-      <c r="D78" s="94"/>
-      <c r="E78" s="94"/>
-      <c r="F78" s="94"/>
-      <c r="G78" s="94"/>
-      <c r="H78" s="94"/>
-      <c r="I78" s="94"/>
-      <c r="J78" s="95"/>
-      <c r="K78" s="95"/>
-      <c r="L78" s="95"/>
-      <c r="M78" s="95"/>
-      <c r="N78" s="95"/>
-      <c r="O78" s="95"/>
-      <c r="P78" s="95"/>
-      <c r="Q78" s="95"/>
-      <c r="R78" s="95"/>
-      <c r="S78" s="95"/>
-      <c r="T78" s="37"/>
-      <c r="U78" s="38"/>
-      <c r="V78" s="38"/>
-      <c r="W78" s="38"/>
-      <c r="X78" s="38"/>
-      <c r="Y78" s="39"/>
-      <c r="Z78" s="37"/>
-      <c r="AA78" s="38"/>
-      <c r="AB78" s="38"/>
-      <c r="AC78" s="38"/>
-      <c r="AD78" s="39"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="53"/>
+      <c r="M78" s="53"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="53"/>
+      <c r="P78" s="53"/>
+      <c r="Q78" s="53"/>
+      <c r="R78" s="53"/>
+      <c r="S78" s="53"/>
+      <c r="T78" s="31"/>
+      <c r="U78" s="32"/>
+      <c r="V78" s="32"/>
+      <c r="W78" s="32"/>
+      <c r="X78" s="32"/>
+      <c r="Y78" s="33"/>
+      <c r="Z78" s="31"/>
+      <c r="AA78" s="32"/>
+      <c r="AB78" s="32"/>
+      <c r="AC78" s="32"/>
+      <c r="AD78" s="33"/>
       <c r="AE78" s="23"/>
       <c r="AF78" s="25"/>
       <c r="AG78" s="25"/>
-      <c r="AH78" s="43"/>
-      <c r="AI78" s="43"/>
-      <c r="AJ78" s="43"/>
+      <c r="AH78" s="52"/>
+      <c r="AI78" s="52"/>
+      <c r="AJ78" s="52"/>
     </row>
     <row r="79" spans="1:36" ht="33.75" customHeight="1">
       <c r="A79" s="19">
         <v>73</v>
       </c>
-      <c r="B79" s="94"/>
-      <c r="C79" s="94"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="94"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="94"/>
-      <c r="H79" s="94"/>
-      <c r="I79" s="94"/>
-      <c r="J79" s="95"/>
-      <c r="K79" s="95"/>
-      <c r="L79" s="95"/>
-      <c r="M79" s="95"/>
-      <c r="N79" s="95"/>
-      <c r="O79" s="95"/>
-      <c r="P79" s="95"/>
-      <c r="Q79" s="95"/>
-      <c r="R79" s="95"/>
-      <c r="S79" s="95"/>
-      <c r="T79" s="37"/>
-      <c r="U79" s="38"/>
-      <c r="V79" s="38"/>
-      <c r="W79" s="38"/>
-      <c r="X79" s="38"/>
-      <c r="Y79" s="39"/>
-      <c r="Z79" s="37"/>
-      <c r="AA79" s="38"/>
-      <c r="AB79" s="38"/>
-      <c r="AC79" s="38"/>
-      <c r="AD79" s="39"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="53"/>
+      <c r="M79" s="53"/>
+      <c r="N79" s="53"/>
+      <c r="O79" s="53"/>
+      <c r="P79" s="53"/>
+      <c r="Q79" s="53"/>
+      <c r="R79" s="53"/>
+      <c r="S79" s="53"/>
+      <c r="T79" s="31"/>
+      <c r="U79" s="32"/>
+      <c r="V79" s="32"/>
+      <c r="W79" s="32"/>
+      <c r="X79" s="32"/>
+      <c r="Y79" s="33"/>
+      <c r="Z79" s="31"/>
+      <c r="AA79" s="32"/>
+      <c r="AB79" s="32"/>
+      <c r="AC79" s="32"/>
+      <c r="AD79" s="33"/>
       <c r="AE79" s="23"/>
       <c r="AF79" s="25"/>
       <c r="AG79" s="25"/>
-      <c r="AH79" s="43"/>
-      <c r="AI79" s="43"/>
-      <c r="AJ79" s="43"/>
+      <c r="AH79" s="52"/>
+      <c r="AI79" s="52"/>
+      <c r="AJ79" s="52"/>
     </row>
     <row r="80" spans="1:36" ht="33.75" customHeight="1">
       <c r="A80" s="19">
         <v>74</v>
       </c>
-      <c r="B80" s="94"/>
-      <c r="C80" s="94"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="94"/>
-      <c r="F80" s="94"/>
-      <c r="G80" s="94"/>
-      <c r="H80" s="94"/>
-      <c r="I80" s="94"/>
-      <c r="J80" s="95"/>
-      <c r="K80" s="95"/>
-      <c r="L80" s="95"/>
-      <c r="M80" s="95"/>
-      <c r="N80" s="95"/>
-      <c r="O80" s="95"/>
-      <c r="P80" s="95"/>
-      <c r="Q80" s="95"/>
-      <c r="R80" s="95"/>
-      <c r="S80" s="95"/>
-      <c r="T80" s="37"/>
-      <c r="U80" s="38"/>
-      <c r="V80" s="38"/>
-      <c r="W80" s="38"/>
-      <c r="X80" s="38"/>
-      <c r="Y80" s="39"/>
-      <c r="Z80" s="37"/>
-      <c r="AA80" s="38"/>
-      <c r="AB80" s="38"/>
-      <c r="AC80" s="38"/>
-      <c r="AD80" s="39"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="53"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="53"/>
+      <c r="M80" s="53"/>
+      <c r="N80" s="53"/>
+      <c r="O80" s="53"/>
+      <c r="P80" s="53"/>
+      <c r="Q80" s="53"/>
+      <c r="R80" s="53"/>
+      <c r="S80" s="53"/>
+      <c r="T80" s="31"/>
+      <c r="U80" s="32"/>
+      <c r="V80" s="32"/>
+      <c r="W80" s="32"/>
+      <c r="X80" s="32"/>
+      <c r="Y80" s="33"/>
+      <c r="Z80" s="31"/>
+      <c r="AA80" s="32"/>
+      <c r="AB80" s="32"/>
+      <c r="AC80" s="32"/>
+      <c r="AD80" s="33"/>
       <c r="AE80" s="23"/>
       <c r="AF80" s="25"/>
       <c r="AG80" s="25"/>
-      <c r="AH80" s="43"/>
-      <c r="AI80" s="43"/>
-      <c r="AJ80" s="43"/>
+      <c r="AH80" s="52"/>
+      <c r="AI80" s="52"/>
+      <c r="AJ80" s="52"/>
     </row>
     <row r="81" spans="1:36" ht="33.75" customHeight="1">
       <c r="A81" s="19">
         <v>75</v>
       </c>
-      <c r="B81" s="94"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="94"/>
-      <c r="F81" s="94"/>
-      <c r="G81" s="94"/>
-      <c r="H81" s="94"/>
-      <c r="I81" s="94"/>
-      <c r="J81" s="95"/>
-      <c r="K81" s="95"/>
-      <c r="L81" s="95"/>
-      <c r="M81" s="95"/>
-      <c r="N81" s="95"/>
-      <c r="O81" s="95"/>
-      <c r="P81" s="95"/>
-      <c r="Q81" s="95"/>
-      <c r="R81" s="95"/>
-      <c r="S81" s="95"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="38"/>
-      <c r="V81" s="38"/>
-      <c r="W81" s="38"/>
-      <c r="X81" s="38"/>
-      <c r="Y81" s="39"/>
-      <c r="Z81" s="37"/>
-      <c r="AA81" s="38"/>
-      <c r="AB81" s="38"/>
-      <c r="AC81" s="38"/>
-      <c r="AD81" s="39"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="53"/>
+      <c r="K81" s="53"/>
+      <c r="L81" s="53"/>
+      <c r="M81" s="53"/>
+      <c r="N81" s="53"/>
+      <c r="O81" s="53"/>
+      <c r="P81" s="53"/>
+      <c r="Q81" s="53"/>
+      <c r="R81" s="53"/>
+      <c r="S81" s="53"/>
+      <c r="T81" s="31"/>
+      <c r="U81" s="32"/>
+      <c r="V81" s="32"/>
+      <c r="W81" s="32"/>
+      <c r="X81" s="32"/>
+      <c r="Y81" s="33"/>
+      <c r="Z81" s="31"/>
+      <c r="AA81" s="32"/>
+      <c r="AB81" s="32"/>
+      <c r="AC81" s="32"/>
+      <c r="AD81" s="33"/>
       <c r="AE81" s="23"/>
       <c r="AF81" s="25"/>
       <c r="AG81" s="25"/>
-      <c r="AH81" s="43"/>
-      <c r="AI81" s="43"/>
-      <c r="AJ81" s="43"/>
+      <c r="AH81" s="52"/>
+      <c r="AI81" s="52"/>
+      <c r="AJ81" s="52"/>
     </row>
     <row r="82" spans="1:36" ht="33.75" customHeight="1">
       <c r="A82" s="19">
         <v>76</v>
       </c>
-      <c r="B82" s="94"/>
-      <c r="C82" s="94"/>
-      <c r="D82" s="94"/>
-      <c r="E82" s="94"/>
-      <c r="F82" s="94"/>
-      <c r="G82" s="94"/>
-      <c r="H82" s="94"/>
-      <c r="I82" s="94"/>
-      <c r="J82" s="95"/>
-      <c r="K82" s="95"/>
-      <c r="L82" s="95"/>
-      <c r="M82" s="95"/>
-      <c r="N82" s="95"/>
-      <c r="O82" s="95"/>
-      <c r="P82" s="95"/>
-      <c r="Q82" s="95"/>
-      <c r="R82" s="95"/>
-      <c r="S82" s="95"/>
-      <c r="T82" s="37"/>
-      <c r="U82" s="38"/>
-      <c r="V82" s="38"/>
-      <c r="W82" s="38"/>
-      <c r="X82" s="38"/>
-      <c r="Y82" s="39"/>
-      <c r="Z82" s="37"/>
-      <c r="AA82" s="38"/>
-      <c r="AB82" s="38"/>
-      <c r="AC82" s="38"/>
-      <c r="AD82" s="39"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="53"/>
+      <c r="K82" s="53"/>
+      <c r="L82" s="53"/>
+      <c r="M82" s="53"/>
+      <c r="N82" s="53"/>
+      <c r="O82" s="53"/>
+      <c r="P82" s="53"/>
+      <c r="Q82" s="53"/>
+      <c r="R82" s="53"/>
+      <c r="S82" s="53"/>
+      <c r="T82" s="31"/>
+      <c r="U82" s="32"/>
+      <c r="V82" s="32"/>
+      <c r="W82" s="32"/>
+      <c r="X82" s="32"/>
+      <c r="Y82" s="33"/>
+      <c r="Z82" s="31"/>
+      <c r="AA82" s="32"/>
+      <c r="AB82" s="32"/>
+      <c r="AC82" s="32"/>
+      <c r="AD82" s="33"/>
       <c r="AE82" s="23"/>
       <c r="AF82" s="25"/>
       <c r="AG82" s="25"/>
-      <c r="AH82" s="43"/>
-      <c r="AI82" s="43"/>
-      <c r="AJ82" s="43"/>
+      <c r="AH82" s="52"/>
+      <c r="AI82" s="52"/>
+      <c r="AJ82" s="52"/>
     </row>
     <row r="83" spans="1:36" ht="33.75" customHeight="1">
       <c r="A83" s="19">
         <v>77</v>
       </c>
-      <c r="B83" s="94"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="94"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="94"/>
-      <c r="H83" s="94"/>
-      <c r="I83" s="94"/>
-      <c r="J83" s="95"/>
-      <c r="K83" s="95"/>
-      <c r="L83" s="95"/>
-      <c r="M83" s="95"/>
-      <c r="N83" s="95"/>
-      <c r="O83" s="95"/>
-      <c r="P83" s="95"/>
-      <c r="Q83" s="95"/>
-      <c r="R83" s="95"/>
-      <c r="S83" s="95"/>
-      <c r="T83" s="37"/>
-      <c r="U83" s="38"/>
-      <c r="V83" s="38"/>
-      <c r="W83" s="38"/>
-      <c r="X83" s="38"/>
-      <c r="Y83" s="39"/>
-      <c r="Z83" s="37"/>
-      <c r="AA83" s="38"/>
-      <c r="AB83" s="38"/>
-      <c r="AC83" s="38"/>
-      <c r="AD83" s="39"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="53"/>
+      <c r="K83" s="53"/>
+      <c r="L83" s="53"/>
+      <c r="M83" s="53"/>
+      <c r="N83" s="53"/>
+      <c r="O83" s="53"/>
+      <c r="P83" s="53"/>
+      <c r="Q83" s="53"/>
+      <c r="R83" s="53"/>
+      <c r="S83" s="53"/>
+      <c r="T83" s="31"/>
+      <c r="U83" s="32"/>
+      <c r="V83" s="32"/>
+      <c r="W83" s="32"/>
+      <c r="X83" s="32"/>
+      <c r="Y83" s="33"/>
+      <c r="Z83" s="31"/>
+      <c r="AA83" s="32"/>
+      <c r="AB83" s="32"/>
+      <c r="AC83" s="32"/>
+      <c r="AD83" s="33"/>
       <c r="AE83" s="23"/>
       <c r="AF83" s="25"/>
       <c r="AG83" s="25"/>
-      <c r="AH83" s="43"/>
-      <c r="AI83" s="43"/>
-      <c r="AJ83" s="43"/>
+      <c r="AH83" s="52"/>
+      <c r="AI83" s="52"/>
+      <c r="AJ83" s="52"/>
     </row>
     <row r="84" spans="1:36" ht="33.75" customHeight="1">
       <c r="A84" s="19">
         <v>78</v>
       </c>
-      <c r="B84" s="94"/>
-      <c r="C84" s="94"/>
-      <c r="D84" s="94"/>
-      <c r="E84" s="94"/>
-      <c r="F84" s="94"/>
-      <c r="G84" s="94"/>
-      <c r="H84" s="94"/>
-      <c r="I84" s="94"/>
-      <c r="J84" s="95"/>
-      <c r="K84" s="95"/>
-      <c r="L84" s="95"/>
-      <c r="M84" s="95"/>
-      <c r="N84" s="95"/>
-      <c r="O84" s="95"/>
-      <c r="P84" s="95"/>
-      <c r="Q84" s="95"/>
-      <c r="R84" s="95"/>
-      <c r="S84" s="95"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="38"/>
-      <c r="V84" s="38"/>
-      <c r="W84" s="38"/>
-      <c r="X84" s="38"/>
-      <c r="Y84" s="39"/>
-      <c r="Z84" s="37"/>
-      <c r="AA84" s="38"/>
-      <c r="AB84" s="38"/>
-      <c r="AC84" s="38"/>
-      <c r="AD84" s="39"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="53"/>
+      <c r="K84" s="53"/>
+      <c r="L84" s="53"/>
+      <c r="M84" s="53"/>
+      <c r="N84" s="53"/>
+      <c r="O84" s="53"/>
+      <c r="P84" s="53"/>
+      <c r="Q84" s="53"/>
+      <c r="R84" s="53"/>
+      <c r="S84" s="53"/>
+      <c r="T84" s="31"/>
+      <c r="U84" s="32"/>
+      <c r="V84" s="32"/>
+      <c r="W84" s="32"/>
+      <c r="X84" s="32"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="31"/>
+      <c r="AA84" s="32"/>
+      <c r="AB84" s="32"/>
+      <c r="AC84" s="32"/>
+      <c r="AD84" s="33"/>
       <c r="AE84" s="23"/>
       <c r="AF84" s="25"/>
       <c r="AG84" s="25"/>
-      <c r="AH84" s="43"/>
-      <c r="AI84" s="43"/>
-      <c r="AJ84" s="43"/>
+      <c r="AH84" s="52"/>
+      <c r="AI84" s="52"/>
+      <c r="AJ84" s="52"/>
     </row>
     <row r="85" spans="1:36" ht="33.75" customHeight="1">
       <c r="A85" s="19">
         <v>79</v>
       </c>
-      <c r="B85" s="94"/>
-      <c r="C85" s="94"/>
-      <c r="D85" s="94"/>
-      <c r="E85" s="94"/>
-      <c r="F85" s="94"/>
-      <c r="G85" s="94"/>
-      <c r="H85" s="94"/>
-      <c r="I85" s="94"/>
-      <c r="J85" s="95"/>
-      <c r="K85" s="95"/>
-      <c r="L85" s="95"/>
-      <c r="M85" s="95"/>
-      <c r="N85" s="95"/>
-      <c r="O85" s="95"/>
-      <c r="P85" s="95"/>
-      <c r="Q85" s="95"/>
-      <c r="R85" s="95"/>
-      <c r="S85" s="95"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="38"/>
-      <c r="V85" s="38"/>
-      <c r="W85" s="38"/>
-      <c r="X85" s="38"/>
-      <c r="Y85" s="39"/>
-      <c r="Z85" s="37"/>
-      <c r="AA85" s="38"/>
-      <c r="AB85" s="38"/>
-      <c r="AC85" s="38"/>
-      <c r="AD85" s="39"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="53"/>
+      <c r="L85" s="53"/>
+      <c r="M85" s="53"/>
+      <c r="N85" s="53"/>
+      <c r="O85" s="53"/>
+      <c r="P85" s="53"/>
+      <c r="Q85" s="53"/>
+      <c r="R85" s="53"/>
+      <c r="S85" s="53"/>
+      <c r="T85" s="31"/>
+      <c r="U85" s="32"/>
+      <c r="V85" s="32"/>
+      <c r="W85" s="32"/>
+      <c r="X85" s="32"/>
+      <c r="Y85" s="33"/>
+      <c r="Z85" s="31"/>
+      <c r="AA85" s="32"/>
+      <c r="AB85" s="32"/>
+      <c r="AC85" s="32"/>
+      <c r="AD85" s="33"/>
       <c r="AE85" s="23"/>
       <c r="AF85" s="25"/>
       <c r="AG85" s="25"/>
-      <c r="AH85" s="43"/>
-      <c r="AI85" s="43"/>
-      <c r="AJ85" s="43"/>
+      <c r="AH85" s="52"/>
+      <c r="AI85" s="52"/>
+      <c r="AJ85" s="52"/>
     </row>
     <row r="86" spans="1:36" ht="33.75" customHeight="1">
       <c r="A86" s="19">
         <v>80</v>
       </c>
-      <c r="B86" s="94"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="94"/>
-      <c r="E86" s="94"/>
-      <c r="F86" s="94"/>
-      <c r="G86" s="94"/>
-      <c r="H86" s="94"/>
-      <c r="I86" s="94"/>
-      <c r="J86" s="95"/>
-      <c r="K86" s="95"/>
-      <c r="L86" s="95"/>
-      <c r="M86" s="95"/>
-      <c r="N86" s="95"/>
-      <c r="O86" s="95"/>
-      <c r="P86" s="95"/>
-      <c r="Q86" s="95"/>
-      <c r="R86" s="95"/>
-      <c r="S86" s="95"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="38"/>
-      <c r="V86" s="38"/>
-      <c r="W86" s="38"/>
-      <c r="X86" s="38"/>
-      <c r="Y86" s="39"/>
-      <c r="Z86" s="37"/>
-      <c r="AA86" s="38"/>
-      <c r="AB86" s="38"/>
-      <c r="AC86" s="38"/>
-      <c r="AD86" s="39"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="53"/>
+      <c r="K86" s="53"/>
+      <c r="L86" s="53"/>
+      <c r="M86" s="53"/>
+      <c r="N86" s="53"/>
+      <c r="O86" s="53"/>
+      <c r="P86" s="53"/>
+      <c r="Q86" s="53"/>
+      <c r="R86" s="53"/>
+      <c r="S86" s="53"/>
+      <c r="T86" s="31"/>
+      <c r="U86" s="32"/>
+      <c r="V86" s="32"/>
+      <c r="W86" s="32"/>
+      <c r="X86" s="32"/>
+      <c r="Y86" s="33"/>
+      <c r="Z86" s="31"/>
+      <c r="AA86" s="32"/>
+      <c r="AB86" s="32"/>
+      <c r="AC86" s="32"/>
+      <c r="AD86" s="33"/>
       <c r="AE86" s="23"/>
       <c r="AF86" s="25"/>
       <c r="AG86" s="25"/>
-      <c r="AH86" s="43"/>
-      <c r="AI86" s="43"/>
-      <c r="AJ86" s="43"/>
+      <c r="AH86" s="52"/>
+      <c r="AI86" s="52"/>
+      <c r="AJ86" s="52"/>
     </row>
     <row r="87" spans="1:36" ht="15.95" customHeight="1">
       <c r="A87" s="19">
@@ -7137,212 +7174,206 @@
     <filterColumn colId="34" showButton="0"/>
   </autoFilter>
   <mergeCells count="430">
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J41:S46"/>
-    <mergeCell ref="T41:Y46"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="Z44:AD44"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="Z45:AD45"/>
-    <mergeCell ref="AH45:AJ45"/>
-    <mergeCell ref="Z46:AD46"/>
-    <mergeCell ref="AH46:AJ46"/>
-    <mergeCell ref="Z41:AD41"/>
-    <mergeCell ref="AH41:AJ41"/>
-    <mergeCell ref="Z42:AD42"/>
-    <mergeCell ref="AH42:AJ42"/>
-    <mergeCell ref="Z43:AD43"/>
-    <mergeCell ref="AH43:AJ43"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="J85:S85"/>
-    <mergeCell ref="T85:Y85"/>
-    <mergeCell ref="Z85:AD85"/>
-    <mergeCell ref="AH85:AJ85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="J86:S86"/>
-    <mergeCell ref="T86:Y86"/>
-    <mergeCell ref="Z86:AD86"/>
-    <mergeCell ref="AH86:AJ86"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="J83:S83"/>
-    <mergeCell ref="T83:Y83"/>
-    <mergeCell ref="Z83:AD83"/>
-    <mergeCell ref="AH83:AJ83"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="J84:S84"/>
-    <mergeCell ref="T84:Y84"/>
-    <mergeCell ref="Z84:AD84"/>
-    <mergeCell ref="AH84:AJ84"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="J81:S81"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="Z81:AD81"/>
-    <mergeCell ref="AH81:AJ81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="J82:S82"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="Z82:AD82"/>
-    <mergeCell ref="AH82:AJ82"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="J79:S79"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="Z79:AD79"/>
-    <mergeCell ref="AH79:AJ79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="J80:S80"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="Z80:AD80"/>
-    <mergeCell ref="AH80:AJ80"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="J77:S77"/>
-    <mergeCell ref="T77:Y77"/>
-    <mergeCell ref="Z77:AD77"/>
-    <mergeCell ref="AH77:AJ77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="J78:S78"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="Z78:AD78"/>
-    <mergeCell ref="AH78:AJ78"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:S75"/>
-    <mergeCell ref="T75:Y75"/>
-    <mergeCell ref="Z75:AD75"/>
-    <mergeCell ref="AH75:AJ75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:S76"/>
-    <mergeCell ref="T76:Y76"/>
-    <mergeCell ref="Z76:AD76"/>
-    <mergeCell ref="AH76:AJ76"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:S73"/>
-    <mergeCell ref="T73:Y73"/>
-    <mergeCell ref="Z73:AD73"/>
-    <mergeCell ref="AH73:AJ73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:S74"/>
-    <mergeCell ref="T74:Y74"/>
-    <mergeCell ref="Z74:AD74"/>
-    <mergeCell ref="AH74:AJ74"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="J71:S71"/>
-    <mergeCell ref="T71:Y71"/>
-    <mergeCell ref="Z71:AD71"/>
-    <mergeCell ref="AH71:AJ71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="J72:S72"/>
-    <mergeCell ref="T72:Y72"/>
-    <mergeCell ref="Z72:AD72"/>
-    <mergeCell ref="AH72:AJ72"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:S69"/>
-    <mergeCell ref="T69:Y69"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="AH69:AJ69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:S70"/>
-    <mergeCell ref="T70:Y70"/>
-    <mergeCell ref="Z70:AD70"/>
-    <mergeCell ref="AH70:AJ70"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="J67:S67"/>
-    <mergeCell ref="T67:Y67"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="AH67:AJ67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="J68:S68"/>
-    <mergeCell ref="T68:Y68"/>
-    <mergeCell ref="Z68:AD68"/>
-    <mergeCell ref="AH68:AJ68"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:S65"/>
-    <mergeCell ref="T65:Y65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="AH65:AJ65"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:S66"/>
-    <mergeCell ref="T66:Y66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="AH66:AJ66"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:S63"/>
-    <mergeCell ref="T63:Y63"/>
-    <mergeCell ref="Z63:AD63"/>
-    <mergeCell ref="AH63:AJ63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:S64"/>
-    <mergeCell ref="T64:Y64"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="AH64:AJ64"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:S61"/>
-    <mergeCell ref="T61:Y61"/>
-    <mergeCell ref="Z61:AD61"/>
-    <mergeCell ref="AH61:AJ61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:S62"/>
-    <mergeCell ref="T62:Y62"/>
-    <mergeCell ref="Z62:AD62"/>
-    <mergeCell ref="AH62:AJ62"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:S59"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="Z59:AD59"/>
-    <mergeCell ref="AH59:AJ59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:S60"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="Z60:AD60"/>
-    <mergeCell ref="AH60:AJ60"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:S57"/>
-    <mergeCell ref="T57:Y57"/>
-    <mergeCell ref="Z57:AD57"/>
-    <mergeCell ref="AH57:AJ57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:S58"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="Z58:AD58"/>
-    <mergeCell ref="AH58:AJ58"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="J23:S24"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="Z23:AD24"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="J17:S17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="J19:S19"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="J15:S15"/>
+    <mergeCell ref="T21:Y21"/>
+    <mergeCell ref="Z21:AD22"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="J20:S20"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="T23:Y23"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="J11:S13"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="J6:S6"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="B19:F22"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J18:S18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J16:S16"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="J14:S14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J21:S22"/>
+    <mergeCell ref="G19:I22"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="T6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="J7:S10"/>
+    <mergeCell ref="B7:F13"/>
+    <mergeCell ref="G7:I13"/>
+    <mergeCell ref="M5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="J26:S26"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="B30:F31"/>
+    <mergeCell ref="J30:S31"/>
+    <mergeCell ref="Z30:AD31"/>
+    <mergeCell ref="G30:I31"/>
+    <mergeCell ref="B23:F28"/>
+    <mergeCell ref="G23:I28"/>
+    <mergeCell ref="J27:S27"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="J29:S29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="J32:S33"/>
+    <mergeCell ref="Z32:AD33"/>
+    <mergeCell ref="J28:S28"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AH30:AJ30"/>
+    <mergeCell ref="T31:Y31"/>
+    <mergeCell ref="AH31:AJ31"/>
+    <mergeCell ref="J34:S34"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:S35"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AH35:AJ35"/>
+    <mergeCell ref="J36:S36"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AH36:AJ36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:S37"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="Z37:AD37"/>
+    <mergeCell ref="AH37:AJ37"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:S38"/>
+    <mergeCell ref="AH38:AJ38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:S39"/>
+    <mergeCell ref="AH39:AJ39"/>
+    <mergeCell ref="T38:Y39"/>
+    <mergeCell ref="Z38:AD39"/>
+    <mergeCell ref="B32:F33"/>
+    <mergeCell ref="B38:F39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="AH52:AJ52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="AH53:AJ53"/>
+    <mergeCell ref="Z50:AD50"/>
+    <mergeCell ref="Z51:AD51"/>
+    <mergeCell ref="Z52:AD52"/>
+    <mergeCell ref="Z53:AD53"/>
+    <mergeCell ref="J40:S40"/>
+    <mergeCell ref="AH40:AJ40"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="AH47:AJ47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="AH48:AJ48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="AH49:AJ49"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="Z40:AD40"/>
+    <mergeCell ref="Z47:AD47"/>
+    <mergeCell ref="Z48:AD48"/>
+    <mergeCell ref="Z49:AD49"/>
     <mergeCell ref="J47:S53"/>
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="G55:I55"/>
@@ -7367,206 +7398,212 @@
     <mergeCell ref="G51:I51"/>
     <mergeCell ref="AH51:AJ51"/>
     <mergeCell ref="G52:I52"/>
-    <mergeCell ref="AH52:AJ52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="AH53:AJ53"/>
-    <mergeCell ref="Z50:AD50"/>
-    <mergeCell ref="Z51:AD51"/>
-    <mergeCell ref="Z52:AD52"/>
-    <mergeCell ref="Z53:AD53"/>
-    <mergeCell ref="J40:S40"/>
-    <mergeCell ref="AH40:AJ40"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="AH47:AJ47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="AH48:AJ48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="AH49:AJ49"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="Z40:AD40"/>
-    <mergeCell ref="Z47:AD47"/>
-    <mergeCell ref="Z48:AD48"/>
-    <mergeCell ref="Z49:AD49"/>
-    <mergeCell ref="B32:F33"/>
-    <mergeCell ref="B38:F39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:S38"/>
-    <mergeCell ref="AH38:AJ38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:S39"/>
-    <mergeCell ref="AH39:AJ39"/>
-    <mergeCell ref="T38:Y39"/>
-    <mergeCell ref="Z38:AD39"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:S36"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AH36:AJ36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:S37"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="Z37:AD37"/>
-    <mergeCell ref="AH37:AJ37"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:S34"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:S35"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="AH35:AJ35"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="J32:S33"/>
-    <mergeCell ref="Z32:AD33"/>
-    <mergeCell ref="J28:S28"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AH30:AJ30"/>
-    <mergeCell ref="T31:Y31"/>
-    <mergeCell ref="AH31:AJ31"/>
-    <mergeCell ref="B30:F31"/>
-    <mergeCell ref="J30:S31"/>
-    <mergeCell ref="Z30:AD31"/>
-    <mergeCell ref="G30:I31"/>
-    <mergeCell ref="B23:F28"/>
-    <mergeCell ref="G23:I28"/>
-    <mergeCell ref="J27:S27"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="T28:Y28"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="J26:S26"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="T6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="J7:S10"/>
-    <mergeCell ref="B7:F13"/>
-    <mergeCell ref="G7:I13"/>
-    <mergeCell ref="M5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="B19:F22"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J18:S18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J16:S16"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="J14:S14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J21:S22"/>
-    <mergeCell ref="G19:I22"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="J11:S13"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="J6:S6"/>
-    <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="J15:S15"/>
-    <mergeCell ref="T21:Y21"/>
-    <mergeCell ref="Z21:AD22"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="J20:S20"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="T23:Y23"/>
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="J23:S24"/>
-    <mergeCell ref="T24:Y24"/>
-    <mergeCell ref="Z23:AD24"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="J17:S17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="J19:S19"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="J29:S29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:S57"/>
+    <mergeCell ref="T57:Y57"/>
+    <mergeCell ref="Z57:AD57"/>
+    <mergeCell ref="AH57:AJ57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:S58"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="Z58:AD58"/>
+    <mergeCell ref="AH58:AJ58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:S59"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="Z59:AD59"/>
+    <mergeCell ref="AH59:AJ59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:S60"/>
+    <mergeCell ref="T60:Y60"/>
+    <mergeCell ref="Z60:AD60"/>
+    <mergeCell ref="AH60:AJ60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:S61"/>
+    <mergeCell ref="T61:Y61"/>
+    <mergeCell ref="Z61:AD61"/>
+    <mergeCell ref="AH61:AJ61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:S62"/>
+    <mergeCell ref="T62:Y62"/>
+    <mergeCell ref="Z62:AD62"/>
+    <mergeCell ref="AH62:AJ62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:S63"/>
+    <mergeCell ref="T63:Y63"/>
+    <mergeCell ref="Z63:AD63"/>
+    <mergeCell ref="AH63:AJ63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:S64"/>
+    <mergeCell ref="T64:Y64"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="AH64:AJ64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:S65"/>
+    <mergeCell ref="T65:Y65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="AH65:AJ65"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:S66"/>
+    <mergeCell ref="T66:Y66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="AH66:AJ66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="J67:S67"/>
+    <mergeCell ref="T67:Y67"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="AH67:AJ67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="J68:S68"/>
+    <mergeCell ref="T68:Y68"/>
+    <mergeCell ref="Z68:AD68"/>
+    <mergeCell ref="AH68:AJ68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:S69"/>
+    <mergeCell ref="T69:Y69"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="AH69:AJ69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:S70"/>
+    <mergeCell ref="T70:Y70"/>
+    <mergeCell ref="Z70:AD70"/>
+    <mergeCell ref="AH70:AJ70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="J71:S71"/>
+    <mergeCell ref="T71:Y71"/>
+    <mergeCell ref="Z71:AD71"/>
+    <mergeCell ref="AH71:AJ71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="J72:S72"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="Z72:AD72"/>
+    <mergeCell ref="AH72:AJ72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:S73"/>
+    <mergeCell ref="T73:Y73"/>
+    <mergeCell ref="Z73:AD73"/>
+    <mergeCell ref="AH73:AJ73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:S74"/>
+    <mergeCell ref="T74:Y74"/>
+    <mergeCell ref="Z74:AD74"/>
+    <mergeCell ref="AH74:AJ74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:S75"/>
+    <mergeCell ref="T75:Y75"/>
+    <mergeCell ref="Z75:AD75"/>
+    <mergeCell ref="AH75:AJ75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:S76"/>
+    <mergeCell ref="T76:Y76"/>
+    <mergeCell ref="Z76:AD76"/>
+    <mergeCell ref="AH76:AJ76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="J77:S77"/>
+    <mergeCell ref="T77:Y77"/>
+    <mergeCell ref="Z77:AD77"/>
+    <mergeCell ref="AH77:AJ77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="J78:S78"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="Z78:AD78"/>
+    <mergeCell ref="AH78:AJ78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="J79:S79"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="Z79:AD79"/>
+    <mergeCell ref="AH79:AJ79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="J80:S80"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="Z80:AD80"/>
+    <mergeCell ref="AH80:AJ80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="J81:S81"/>
+    <mergeCell ref="T81:Y81"/>
+    <mergeCell ref="Z81:AD81"/>
+    <mergeCell ref="AH81:AJ81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="J82:S82"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="Z82:AD82"/>
+    <mergeCell ref="AH82:AJ82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="J83:S83"/>
+    <mergeCell ref="T83:Y83"/>
+    <mergeCell ref="Z83:AD83"/>
+    <mergeCell ref="AH83:AJ83"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="J84:S84"/>
+    <mergeCell ref="T84:Y84"/>
+    <mergeCell ref="Z84:AD84"/>
+    <mergeCell ref="AH84:AJ84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="J85:S85"/>
+    <mergeCell ref="T85:Y85"/>
+    <mergeCell ref="Z85:AD85"/>
+    <mergeCell ref="AH85:AJ85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="J86:S86"/>
+    <mergeCell ref="T86:Y86"/>
+    <mergeCell ref="Z86:AD86"/>
+    <mergeCell ref="AH86:AJ86"/>
+    <mergeCell ref="Z44:AD44"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="Z45:AD45"/>
+    <mergeCell ref="AH45:AJ45"/>
+    <mergeCell ref="Z46:AD46"/>
+    <mergeCell ref="AH46:AJ46"/>
+    <mergeCell ref="Z41:AD41"/>
+    <mergeCell ref="AH41:AJ41"/>
+    <mergeCell ref="Z42:AD42"/>
+    <mergeCell ref="AH42:AJ42"/>
+    <mergeCell ref="Z43:AD43"/>
+    <mergeCell ref="AH43:AJ43"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J41:S46"/>
+    <mergeCell ref="T41:Y46"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:I45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
